--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -7052,28 +7052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13403.84919300537</v>
+        <v>13623.284663197</v>
       </c>
       <c r="AB2" t="n">
-        <v>18339.73780196298</v>
+        <v>18639.9790930889</v>
       </c>
       <c r="AC2" t="n">
-        <v>16589.41896612661</v>
+        <v>16861.00564981876</v>
       </c>
       <c r="AD2" t="n">
-        <v>13403849.19300537</v>
+        <v>13623284.663197</v>
       </c>
       <c r="AE2" t="n">
-        <v>18339737.80196298</v>
+        <v>18639979.0930889</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.364862070961381e-07</v>
+        <v>8.076137615150597e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.81875</v>
       </c>
       <c r="AH2" t="n">
-        <v>16589418.96612661</v>
+        <v>16861005.64981876</v>
       </c>
     </row>
     <row r="3">
@@ -7158,28 +7158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4441.44197965801</v>
+        <v>4551.117133835093</v>
       </c>
       <c r="AB3" t="n">
-        <v>6076.976859159645</v>
+        <v>6227.039243631055</v>
       </c>
       <c r="AC3" t="n">
-        <v>5496.998716811809</v>
+        <v>5632.739357923141</v>
       </c>
       <c r="AD3" t="n">
-        <v>4441441.979658009</v>
+        <v>4551117.133835093</v>
       </c>
       <c r="AE3" t="n">
-        <v>6076976.859159645</v>
+        <v>6227039.243631055</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.27018819528077e-07</v>
+        <v>1.53020134158719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5496998.716811809</v>
+        <v>5632739.357923141</v>
       </c>
     </row>
     <row r="4">
@@ -7264,28 +7264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3406.534939375997</v>
+        <v>3504.099744285422</v>
       </c>
       <c r="AB4" t="n">
-        <v>4660.971389769396</v>
+        <v>4794.463860101894</v>
       </c>
       <c r="AC4" t="n">
-        <v>4216.13482204406</v>
+        <v>4336.886958365878</v>
       </c>
       <c r="AD4" t="n">
-        <v>3406534.939375997</v>
+        <v>3504099.744285422</v>
       </c>
       <c r="AE4" t="n">
-        <v>4660971.389769397</v>
+        <v>4794463.860101894</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.720279404684385e-07</v>
+        <v>1.7985061808071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.63333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4216134.822044061</v>
+        <v>4336886.958365878</v>
       </c>
     </row>
     <row r="5">
@@ -7370,28 +7370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3009.71109408344</v>
+        <v>3094.995047033167</v>
       </c>
       <c r="AB5" t="n">
-        <v>4118.019498007592</v>
+        <v>4234.708764895879</v>
       </c>
       <c r="AC5" t="n">
-        <v>3725.001496794257</v>
+        <v>3830.554103825135</v>
       </c>
       <c r="AD5" t="n">
-        <v>3009711.09408344</v>
+        <v>3094995.047033167</v>
       </c>
       <c r="AE5" t="n">
-        <v>4118019.498007592</v>
+        <v>4234708.764895879</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.049054918191286e-06</v>
+        <v>1.941026256368581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.48541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3725001.496794257</v>
+        <v>3830554.103825135</v>
       </c>
     </row>
     <row r="6">
@@ -7476,28 +7476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2791.893840272943</v>
+        <v>2877.26304456869</v>
       </c>
       <c r="AB6" t="n">
-        <v>3819.992321925013</v>
+        <v>3936.798233465948</v>
       </c>
       <c r="AC6" t="n">
-        <v>3455.417616113242</v>
+        <v>3561.075735394832</v>
       </c>
       <c r="AD6" t="n">
-        <v>2791893.840272943</v>
+        <v>2877263.04456869</v>
       </c>
       <c r="AE6" t="n">
-        <v>3819992.321925013</v>
+        <v>3936798.233465948</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.09675912598555e-06</v>
+        <v>2.029291530437907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.85625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3455417.616113242</v>
+        <v>3561075.735394832</v>
       </c>
     </row>
     <row r="7">
@@ -7582,28 +7582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2657.940613393001</v>
+        <v>2743.139225488156</v>
       </c>
       <c r="AB7" t="n">
-        <v>3636.711607308574</v>
+        <v>3753.284107074663</v>
       </c>
       <c r="AC7" t="n">
-        <v>3289.628955663705</v>
+        <v>3395.075939662644</v>
       </c>
       <c r="AD7" t="n">
-        <v>2657940.613393001</v>
+        <v>2743139.225488156</v>
       </c>
       <c r="AE7" t="n">
-        <v>3636711.607308574</v>
+        <v>3753284.107074663</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.130166659884285e-06</v>
+        <v>2.091104214724989e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.44583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3289628.955663705</v>
+        <v>3395075.939662644</v>
       </c>
     </row>
     <row r="8">
@@ -7688,28 +7688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2566.406911580748</v>
+        <v>2639.580604771369</v>
       </c>
       <c r="AB8" t="n">
-        <v>3511.471158307119</v>
+        <v>3611.590633526041</v>
       </c>
       <c r="AC8" t="n">
-        <v>3176.341279338879</v>
+        <v>3266.905492361469</v>
       </c>
       <c r="AD8" t="n">
-        <v>2566406.911580748</v>
+        <v>2639580.604771369</v>
       </c>
       <c r="AE8" t="n">
-        <v>3511471.158307119</v>
+        <v>3611590.633526041</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.153945821567665e-06</v>
+        <v>2.135101889566886e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.16875</v>
       </c>
       <c r="AH8" t="n">
-        <v>3176341.27933888</v>
+        <v>3266905.492361469</v>
       </c>
     </row>
     <row r="9">
@@ -7794,28 +7794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2484.708968629106</v>
+        <v>2569.992832070282</v>
       </c>
       <c r="AB9" t="n">
-        <v>3399.68842850181</v>
+        <v>3516.377572920548</v>
       </c>
       <c r="AC9" t="n">
-        <v>3075.226936378147</v>
+        <v>3180.779432627797</v>
       </c>
       <c r="AD9" t="n">
-        <v>2484708.968629106</v>
+        <v>2569992.832070282</v>
       </c>
       <c r="AE9" t="n">
-        <v>3399688.42850181</v>
+        <v>3516377.572920548</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.172035490578333e-06</v>
+        <v>2.168572513372991e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.965625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3075226.936378147</v>
+        <v>3180779.432627797</v>
       </c>
     </row>
     <row r="10">
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2426.717960534492</v>
+        <v>2512.001823975667</v>
       </c>
       <c r="AB10" t="n">
-        <v>3320.342572844038</v>
+        <v>3437.031717262776</v>
       </c>
       <c r="AC10" t="n">
-        <v>3003.453737821747</v>
+        <v>3109.006234071398</v>
       </c>
       <c r="AD10" t="n">
-        <v>2426717.960534492</v>
+        <v>2512001.823975667</v>
       </c>
       <c r="AE10" t="n">
-        <v>3320342.572844038</v>
+        <v>3437031.717262776</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.187207471038894e-06</v>
+        <v>2.196644649468434e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>3003453.737821747</v>
+        <v>3109006.234071398</v>
       </c>
     </row>
     <row r="11">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2385.526137758417</v>
+        <v>2470.810001199592</v>
       </c>
       <c r="AB11" t="n">
-        <v>3263.982103666843</v>
+        <v>3380.671248085581</v>
       </c>
       <c r="AC11" t="n">
-        <v>2952.472232720411</v>
+        <v>3058.024728970061</v>
       </c>
       <c r="AD11" t="n">
-        <v>2385526.137758417</v>
+        <v>2470810.001199592</v>
       </c>
       <c r="AE11" t="n">
-        <v>3263982.103666843</v>
+        <v>3380671.248085581</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.197711149819283e-06</v>
+        <v>2.216079205226818e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.68854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2952472.232720411</v>
+        <v>3058024.728970062</v>
       </c>
     </row>
     <row r="12">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2345.27738398741</v>
+        <v>2430.561247428585</v>
       </c>
       <c r="AB12" t="n">
-        <v>3208.911983107651</v>
+        <v>3325.601127526389</v>
       </c>
       <c r="AC12" t="n">
-        <v>2902.657927175991</v>
+        <v>3008.210423425642</v>
       </c>
       <c r="AD12" t="n">
-        <v>2345277.38398741</v>
+        <v>2430561.247428585</v>
       </c>
       <c r="AE12" t="n">
-        <v>3208911.983107651</v>
+        <v>3325601.127526389</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.207631290889649e-06</v>
+        <v>2.23443406344307e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.584375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2902657.927175991</v>
+        <v>3008210.423425642</v>
       </c>
     </row>
     <row r="13">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2312.719965924076</v>
+        <v>2385.978910460716</v>
       </c>
       <c r="AB13" t="n">
-        <v>3164.365487381482</v>
+        <v>3264.601607253052</v>
       </c>
       <c r="AC13" t="n">
-        <v>2862.362886480529</v>
+        <v>2953.03261175383</v>
       </c>
       <c r="AD13" t="n">
-        <v>2312719.965924076</v>
+        <v>2385978.910460716</v>
       </c>
       <c r="AE13" t="n">
-        <v>3164365.487381482</v>
+        <v>3264601.607253052</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.215363165547435e-06</v>
+        <v>2.248740055876324e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.50416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2862362.886480529</v>
+        <v>2953032.61175383</v>
       </c>
     </row>
     <row r="14">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2281.605593586834</v>
+        <v>2354.693945922883</v>
       </c>
       <c r="AB14" t="n">
-        <v>3121.793430480436</v>
+        <v>3221.79613857716</v>
       </c>
       <c r="AC14" t="n">
-        <v>2823.853846939864</v>
+        <v>2914.312436930514</v>
       </c>
       <c r="AD14" t="n">
-        <v>2281605.593586835</v>
+        <v>2354693.945922883</v>
       </c>
       <c r="AE14" t="n">
-        <v>3121793.430480436</v>
+        <v>3221796.138577159</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222657386922705e-06</v>
+        <v>2.26223627515298e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.42916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2823853.846939864</v>
+        <v>2914312.436930514</v>
       </c>
     </row>
     <row r="15">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2257.430840213787</v>
+        <v>2330.519192549836</v>
       </c>
       <c r="AB15" t="n">
-        <v>3088.716466400583</v>
+        <v>3188.719174497307</v>
       </c>
       <c r="AC15" t="n">
-        <v>2793.933701887983</v>
+        <v>2884.392291878634</v>
       </c>
       <c r="AD15" t="n">
-        <v>2257430.840213787</v>
+        <v>2330519.192549836</v>
       </c>
       <c r="AE15" t="n">
-        <v>3088716.466400583</v>
+        <v>3188719.174497307</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.227471573030383e-06</v>
+        <v>2.271143779875572e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.38125</v>
       </c>
       <c r="AH15" t="n">
-        <v>2793933.701887983</v>
+        <v>2884392.291878634</v>
       </c>
     </row>
     <row r="16">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2232.938336034052</v>
+        <v>2306.026688370101</v>
       </c>
       <c r="AB16" t="n">
-        <v>3055.204741648843</v>
+        <v>3155.207449745567</v>
       </c>
       <c r="AC16" t="n">
-        <v>2763.620289112549</v>
+        <v>2854.0788791032</v>
       </c>
       <c r="AD16" t="n">
-        <v>2232938.336034052</v>
+        <v>2306026.688370101</v>
       </c>
       <c r="AE16" t="n">
-        <v>3055204.741648843</v>
+        <v>3155207.449745567</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.232869296848083e-06</v>
+        <v>2.281130982140297e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.32604166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2763620.289112549</v>
+        <v>2854078.8791032</v>
       </c>
     </row>
     <row r="17">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2209.394093254067</v>
+        <v>2282.482445590116</v>
       </c>
       <c r="AB17" t="n">
-        <v>3022.990469978582</v>
+        <v>3122.993178075306</v>
       </c>
       <c r="AC17" t="n">
-        <v>2734.480502317484</v>
+        <v>2824.939092308135</v>
       </c>
       <c r="AD17" t="n">
-        <v>2209394.093254067</v>
+        <v>2282482.445590116</v>
       </c>
       <c r="AE17" t="n">
-        <v>3022990.469978582</v>
+        <v>3122993.178075306</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.23739171410075e-06</v>
+        <v>2.289498638091824e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.28020833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2734480.502317484</v>
+        <v>2824939.092308135</v>
       </c>
     </row>
     <row r="18">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2187.246428518242</v>
+        <v>2260.334780854294</v>
       </c>
       <c r="AB18" t="n">
-        <v>2992.687058000844</v>
+        <v>3092.689766097742</v>
       </c>
       <c r="AC18" t="n">
-        <v>2707.06920544791</v>
+        <v>2797.527795438607</v>
       </c>
       <c r="AD18" t="n">
-        <v>2187246.428518242</v>
+        <v>2260334.780854294</v>
       </c>
       <c r="AE18" t="n">
-        <v>2992687.058000844</v>
+        <v>3092689.766097743</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.241622362498406e-06</v>
+        <v>2.297326445272284e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.23854166666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>2707069.20544791</v>
+        <v>2797527.795438607</v>
       </c>
     </row>
     <row r="19">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2165.58348345195</v>
+        <v>2238.671835788001</v>
       </c>
       <c r="AB19" t="n">
-        <v>2963.046860859457</v>
+        <v>3063.049568956354</v>
       </c>
       <c r="AC19" t="n">
-        <v>2680.257827121419</v>
+        <v>2770.716417112115</v>
       </c>
       <c r="AD19" t="n">
-        <v>2165583.48345195</v>
+        <v>2238671.835788001</v>
       </c>
       <c r="AE19" t="n">
-        <v>2963046.860859457</v>
+        <v>3063049.568956354</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.245561242041052e-06</v>
+        <v>2.304614403681678e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.20104166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2680257.827121419</v>
+        <v>2770716.417112115</v>
       </c>
     </row>
     <row r="20">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2149.804638347548</v>
+        <v>2222.892990683598</v>
       </c>
       <c r="AB20" t="n">
-        <v>2941.457548874097</v>
+        <v>3041.460256970992</v>
       </c>
       <c r="AC20" t="n">
-        <v>2660.728968771151</v>
+        <v>2751.187558761847</v>
       </c>
       <c r="AD20" t="n">
-        <v>2149804.638347548</v>
+        <v>2222892.990683598</v>
       </c>
       <c r="AE20" t="n">
-        <v>2941457.548874097</v>
+        <v>3041460.256970992</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.248041277308644e-06</v>
+        <v>2.309203118235741e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.17708333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2660728.968771151</v>
+        <v>2751187.558761847</v>
       </c>
     </row>
     <row r="21">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2130.180510598534</v>
+        <v>2203.268862934586</v>
       </c>
       <c r="AB21" t="n">
-        <v>2914.606951532483</v>
+        <v>3014.609659629376</v>
       </c>
       <c r="AC21" t="n">
-        <v>2636.440954754771</v>
+        <v>2726.899544745466</v>
       </c>
       <c r="AD21" t="n">
-        <v>2130180.510598534</v>
+        <v>2203268.862934586</v>
       </c>
       <c r="AE21" t="n">
-        <v>2914606.951532483</v>
+        <v>3014609.659629377</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.250813081431246e-06</v>
+        <v>2.31433168156087e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.15</v>
       </c>
       <c r="AH21" t="n">
-        <v>2636440.954754771</v>
+        <v>2726899.544745466</v>
       </c>
     </row>
     <row r="22">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2111.880410420089</v>
+        <v>2184.968762756137</v>
       </c>
       <c r="AB22" t="n">
-        <v>2889.567947124893</v>
+        <v>2989.57065522161</v>
       </c>
       <c r="AC22" t="n">
-        <v>2613.791637785378</v>
+        <v>2704.250227776028</v>
       </c>
       <c r="AD22" t="n">
-        <v>2111880.410420089</v>
+        <v>2184968.762756137</v>
       </c>
       <c r="AE22" t="n">
-        <v>2889567.947124893</v>
+        <v>2989570.65522161</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.253730769981354e-06</v>
+        <v>2.319730169271532e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.12083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>2613791.637785378</v>
+        <v>2704250.227776028</v>
       </c>
     </row>
     <row r="23">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2093.617941811563</v>
+        <v>2166.706294147612</v>
       </c>
       <c r="AB23" t="n">
-        <v>2864.580431891456</v>
+        <v>2964.583139988174</v>
       </c>
       <c r="AC23" t="n">
-        <v>2591.188895935622</v>
+        <v>2681.647485926272</v>
       </c>
       <c r="AD23" t="n">
-        <v>2093617.941811564</v>
+        <v>2166706.294147612</v>
       </c>
       <c r="AE23" t="n">
-        <v>2864580.431891456</v>
+        <v>2964583.139988174</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.256210805248946e-06</v>
+        <v>2.324318883825594e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.09791666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2591188.895935623</v>
+        <v>2681647.485926272</v>
       </c>
     </row>
     <row r="24">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2078.91241591648</v>
+        <v>2152.000768252529</v>
       </c>
       <c r="AB24" t="n">
-        <v>2844.459682599788</v>
+        <v>2944.462390696506</v>
       </c>
       <c r="AC24" t="n">
-        <v>2572.988442716702</v>
+        <v>2663.447032707351</v>
       </c>
       <c r="AD24" t="n">
-        <v>2078912.41591648</v>
+        <v>2152000.768252529</v>
       </c>
       <c r="AE24" t="n">
-        <v>2844459.682599788</v>
+        <v>2944462.390696506</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.258253187234021e-06</v>
+        <v>2.328097825223058e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.07708333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>2572988.442716702</v>
+        <v>2663447.032707351</v>
       </c>
     </row>
     <row r="25">
@@ -9490,28 +9490,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2061.994912704385</v>
+        <v>2135.083265040433</v>
       </c>
       <c r="AB25" t="n">
-        <v>2821.312408357431</v>
+        <v>2921.315116454149</v>
       </c>
       <c r="AC25" t="n">
-        <v>2552.050311840633</v>
+        <v>2642.508901831282</v>
       </c>
       <c r="AD25" t="n">
-        <v>2061994.912704385</v>
+        <v>2135083.265040433</v>
       </c>
       <c r="AE25" t="n">
-        <v>2821312.408357431</v>
+        <v>2921315.116454149</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.259712031509075e-06</v>
+        <v>2.330797069078389e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.0625</v>
       </c>
       <c r="AH25" t="n">
-        <v>2552050.311840633</v>
+        <v>2642508.901831282</v>
       </c>
     </row>
     <row r="26">
@@ -9596,28 +9596,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2046.113893724569</v>
+        <v>2119.202246060617</v>
       </c>
       <c r="AB26" t="n">
-        <v>2799.583297568138</v>
+        <v>2899.586005664855</v>
       </c>
       <c r="AC26" t="n">
-        <v>2532.394996888071</v>
+        <v>2622.85358687872</v>
       </c>
       <c r="AD26" t="n">
-        <v>2046113.893724569</v>
+        <v>2119202.246060617</v>
       </c>
       <c r="AE26" t="n">
-        <v>2799583.297568138</v>
+        <v>2899586.005664855</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.261900297921656e-06</v>
+        <v>2.334845934861386e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.04270833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>2532394.996888071</v>
+        <v>2622853.58687872</v>
       </c>
     </row>
     <row r="27">
@@ -9702,28 +9702,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2031.927627791256</v>
+        <v>2105.015980127304</v>
       </c>
       <c r="AB27" t="n">
-        <v>2780.173022664296</v>
+        <v>2880.175730761013</v>
       </c>
       <c r="AC27" t="n">
-        <v>2514.837211378559</v>
+        <v>2605.295801369209</v>
       </c>
       <c r="AD27" t="n">
-        <v>2031927.627791256</v>
+        <v>2105015.980127304</v>
       </c>
       <c r="AE27" t="n">
-        <v>2780173.022664296</v>
+        <v>2880175.730761013</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.263505026624215e-06</v>
+        <v>2.33781510310225e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>2514837.211378559</v>
+        <v>2605295.801369209</v>
       </c>
     </row>
     <row r="28">
@@ -9808,28 +9808,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2025.909969410968</v>
+        <v>2098.998321747016</v>
       </c>
       <c r="AB28" t="n">
-        <v>2771.939396988035</v>
+        <v>2871.942105084753</v>
       </c>
       <c r="AC28" t="n">
-        <v>2507.389391380875</v>
+        <v>2597.847981371524</v>
       </c>
       <c r="AD28" t="n">
-        <v>2025909.969410968</v>
+        <v>2098998.321747016</v>
       </c>
       <c r="AE28" t="n">
-        <v>2771939.396988035</v>
+        <v>2871942.105084753</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.264234448761742e-06</v>
+        <v>2.339164725029916e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.02083333333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>2507389.391380875</v>
+        <v>2597847.981371524</v>
       </c>
     </row>
     <row r="29">
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>2032.724579035219</v>
+        <v>2105.812931371267</v>
       </c>
       <c r="AB29" t="n">
-        <v>2781.263446515294</v>
+        <v>2881.266154612011</v>
       </c>
       <c r="AC29" t="n">
-        <v>2515.823566707638</v>
+        <v>2606.282156698287</v>
       </c>
       <c r="AD29" t="n">
-        <v>2032724.579035219</v>
+        <v>2105812.931371267</v>
       </c>
       <c r="AE29" t="n">
-        <v>2781263.446515294</v>
+        <v>2881266.154612011</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.264088564334237e-06</v>
+        <v>2.338894800644382e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.021875</v>
       </c>
       <c r="AH29" t="n">
-        <v>2515823.566707638</v>
+        <v>2606282.156698287</v>
       </c>
     </row>
     <row r="30">
@@ -10020,28 +10020,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>2041.265910427098</v>
+        <v>2114.354262763146</v>
       </c>
       <c r="AB30" t="n">
-        <v>2792.950072942609</v>
+        <v>2892.952781039328</v>
       </c>
       <c r="AC30" t="n">
-        <v>2526.394837911013</v>
+        <v>2616.853427901664</v>
       </c>
       <c r="AD30" t="n">
-        <v>2041265.910427098</v>
+        <v>2114354.262763146</v>
       </c>
       <c r="AE30" t="n">
-        <v>2792950.072942609</v>
+        <v>2892952.781039328</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.264088564334237e-06</v>
+        <v>2.338894800644382e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12.021875</v>
       </c>
       <c r="AH30" t="n">
-        <v>2526394.837911014</v>
+        <v>2616853.427901663</v>
       </c>
     </row>
   </sheetData>
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8069.546276213763</v>
+        <v>8234.06765387121</v>
       </c>
       <c r="AB2" t="n">
-        <v>11041.10921837256</v>
+        <v>11266.21462545442</v>
       </c>
       <c r="AC2" t="n">
-        <v>9987.36125086478</v>
+        <v>10190.98291383216</v>
       </c>
       <c r="AD2" t="n">
-        <v>8069546.276213763</v>
+        <v>8234067.653871211</v>
       </c>
       <c r="AE2" t="n">
-        <v>11041109.21837256</v>
+        <v>11266214.62545442</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.739312631986231e-07</v>
+        <v>1.094001563845072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>9987361.25086478</v>
+        <v>10190982.91383216</v>
       </c>
     </row>
     <row r="3">
@@ -10423,28 +10423,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3477.406497825684</v>
+        <v>3583.194566165567</v>
       </c>
       <c r="AB3" t="n">
-        <v>4757.940982672756</v>
+        <v>4902.684884815586</v>
       </c>
       <c r="AC3" t="n">
-        <v>4303.849773098399</v>
+        <v>4434.779520370053</v>
       </c>
       <c r="AD3" t="n">
-        <v>3477406.497825684</v>
+        <v>3583194.566165567</v>
       </c>
       <c r="AE3" t="n">
-        <v>4757940.982672756</v>
+        <v>4902684.884815586</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.343172365139825e-07</v>
+        <v>1.78095284821584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.82708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4303849.773098399</v>
+        <v>4434779.520370053</v>
       </c>
     </row>
     <row r="4">
@@ -10529,28 +10529,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2793.672530865455</v>
+        <v>2887.69688707262</v>
       </c>
       <c r="AB4" t="n">
-        <v>3822.426004863979</v>
+        <v>3951.074277088471</v>
       </c>
       <c r="AC4" t="n">
-        <v>3457.619031768208</v>
+        <v>3573.989293450574</v>
       </c>
       <c r="AD4" t="n">
-        <v>2793672.530865455</v>
+        <v>2887696.88707262</v>
       </c>
       <c r="AE4" t="n">
-        <v>3822426.004863978</v>
+        <v>3951074.277088471</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064859056831313e-06</v>
+        <v>2.029785704572923e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.76354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3457619.031768207</v>
+        <v>3573989.293450574</v>
       </c>
     </row>
     <row r="5">
@@ -10635,28 +10635,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2510.253977094026</v>
+        <v>2604.192992446621</v>
       </c>
       <c r="AB5" t="n">
-        <v>3434.640236049751</v>
+        <v>3563.171741152046</v>
       </c>
       <c r="AC5" t="n">
-        <v>3106.842992468881</v>
+        <v>3223.107631119309</v>
       </c>
       <c r="AD5" t="n">
-        <v>2510253.977094026</v>
+        <v>2604192.992446621</v>
       </c>
       <c r="AE5" t="n">
-        <v>3434640.236049751</v>
+        <v>3563171.741152046</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.133374648073011e-06</v>
+        <v>2.160386995655138e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.87083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3106842.992468881</v>
+        <v>3223107.631119309</v>
       </c>
     </row>
     <row r="6">
@@ -10741,28 +10741,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2357.055852363728</v>
+        <v>2439.231245092156</v>
       </c>
       <c r="AB6" t="n">
-        <v>3225.027803169482</v>
+        <v>3337.463800822989</v>
       </c>
       <c r="AC6" t="n">
-        <v>2917.235675989815</v>
+        <v>3018.940939832181</v>
       </c>
       <c r="AD6" t="n">
-        <v>2357055.852363728</v>
+        <v>2439231.245092156</v>
       </c>
       <c r="AE6" t="n">
-        <v>3225027.803169481</v>
+        <v>3337463.800822989</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.175932790650453e-06</v>
+        <v>2.241509383507967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.36875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2917235.675989815</v>
+        <v>3018940.939832181</v>
       </c>
     </row>
     <row r="7">
@@ -10847,28 +10847,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2260.230604141178</v>
+        <v>2330.812966446033</v>
       </c>
       <c r="AB7" t="n">
-        <v>3092.547226922906</v>
+        <v>3189.121128902473</v>
       </c>
       <c r="AC7" t="n">
-        <v>2797.398860002561</v>
+        <v>2884.755884319517</v>
       </c>
       <c r="AD7" t="n">
-        <v>2260230.604141178</v>
+        <v>2330812.966446033</v>
       </c>
       <c r="AE7" t="n">
-        <v>3092547.226922906</v>
+        <v>3189121.128902473</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.203852139504448e-06</v>
+        <v>2.294727971283759e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.05833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2797398.860002561</v>
+        <v>2884755.884319516</v>
       </c>
     </row>
     <row r="8">
@@ -10953,28 +10953,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2175.370503641845</v>
+        <v>2257.631147716297</v>
       </c>
       <c r="AB8" t="n">
-        <v>2976.437893656129</v>
+        <v>3088.99053596246</v>
       </c>
       <c r="AC8" t="n">
-        <v>2692.370838542409</v>
+        <v>2794.181614635533</v>
       </c>
       <c r="AD8" t="n">
-        <v>2175370.503641845</v>
+        <v>2257631.147716297</v>
       </c>
       <c r="AE8" t="n">
-        <v>2976437.893656129</v>
+        <v>3088990.535962461</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.224678464595537e-06</v>
+        <v>2.33442616108408e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.83645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2692370.838542409</v>
+        <v>2794181.614635533</v>
       </c>
     </row>
     <row r="9">
@@ -11059,28 +11059,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2117.83885682867</v>
+        <v>2200.099500903122</v>
       </c>
       <c r="AB9" t="n">
-        <v>2897.720556369217</v>
+        <v>3010.273198675543</v>
       </c>
       <c r="AC9" t="n">
-        <v>2621.166173445683</v>
+        <v>2722.976949538805</v>
       </c>
       <c r="AD9" t="n">
-        <v>2117838.85682867</v>
+        <v>2200099.500903122</v>
       </c>
       <c r="AE9" t="n">
-        <v>2897720.556369217</v>
+        <v>3010273.198675543</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.240826412311091e-06</v>
+        <v>2.36520664158143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.66875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2621166.173445683</v>
+        <v>2722976.949538806</v>
       </c>
     </row>
     <row r="10">
@@ -11165,28 +11165,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2070.839074147784</v>
+        <v>2153.099718222233</v>
       </c>
       <c r="AB10" t="n">
-        <v>2833.413380221156</v>
+        <v>2945.966022527306</v>
       </c>
       <c r="AC10" t="n">
-        <v>2562.996383933504</v>
+        <v>2664.80716002658</v>
       </c>
       <c r="AD10" t="n">
-        <v>2070839.074147784</v>
+        <v>2153099.718222233</v>
       </c>
       <c r="AE10" t="n">
-        <v>2833413.380221156</v>
+        <v>2945966.022527305</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.253503305844797e-06</v>
+        <v>2.38937075711206e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.540625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2562996.383933504</v>
+        <v>2664807.16002658</v>
       </c>
     </row>
     <row r="11">
@@ -11271,28 +11271,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2032.706513090288</v>
+        <v>2103.203534540571</v>
       </c>
       <c r="AB11" t="n">
-        <v>2781.238727892426</v>
+        <v>2877.69586274979</v>
       </c>
       <c r="AC11" t="n">
-        <v>2515.801207195444</v>
+        <v>2603.052608480459</v>
       </c>
       <c r="AD11" t="n">
-        <v>2032706.513090288</v>
+        <v>2103203.534540571</v>
       </c>
       <c r="AE11" t="n">
-        <v>2781238.727892426</v>
+        <v>2877695.86274979</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.262860060595866e-06</v>
+        <v>2.407206175718002e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.44895833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>2515801.207195444</v>
+        <v>2603052.608480459</v>
       </c>
     </row>
     <row r="12">
@@ -11377,28 +11377,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1995.913234472878</v>
+        <v>2066.410255923162</v>
       </c>
       <c r="AB12" t="n">
-        <v>2730.896540883194</v>
+        <v>2827.353675740557</v>
       </c>
       <c r="AC12" t="n">
-        <v>2470.263607858669</v>
+        <v>2557.515009143685</v>
       </c>
       <c r="AD12" t="n">
-        <v>1995913.234472879</v>
+        <v>2066410.255923162</v>
       </c>
       <c r="AE12" t="n">
-        <v>2730896.540883194</v>
+        <v>2827353.675740557</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.271462238350881e-06</v>
+        <v>2.423603254113786e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.36458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2470263.607858669</v>
+        <v>2557515.009143685</v>
       </c>
     </row>
     <row r="13">
@@ -11483,28 +11483,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1965.401005719752</v>
+        <v>2035.898027170035</v>
       </c>
       <c r="AB13" t="n">
-        <v>2689.148363398638</v>
+        <v>2785.605498256001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2432.499817839304</v>
+        <v>2519.751219124319</v>
       </c>
       <c r="AD13" t="n">
-        <v>1965401.005719752</v>
+        <v>2035898.027170035</v>
       </c>
       <c r="AE13" t="n">
-        <v>2689148.363398638</v>
+        <v>2785605.498256001</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.278404346714577e-06</v>
+        <v>2.436835984047227e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2432499.817839304</v>
+        <v>2519751.219124319</v>
       </c>
     </row>
     <row r="14">
@@ -11589,28 +11589,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1935.284301125366</v>
+        <v>2005.781322575649</v>
       </c>
       <c r="AB14" t="n">
-        <v>2647.941359517363</v>
+        <v>2744.398494374726</v>
       </c>
       <c r="AC14" t="n">
-        <v>2395.225552574065</v>
+        <v>2482.476953859079</v>
       </c>
       <c r="AD14" t="n">
-        <v>1935284.301125366</v>
+        <v>2005781.322575649</v>
       </c>
       <c r="AE14" t="n">
-        <v>2647941.359517363</v>
+        <v>2744398.494374726</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.284290047283798e-06</v>
+        <v>2.448055037686448e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.240625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2395225.552574065</v>
+        <v>2482476.95385908</v>
       </c>
     </row>
     <row r="15">
@@ -11695,28 +11695,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1906.816531493296</v>
+        <v>1977.313552943579</v>
       </c>
       <c r="AB15" t="n">
-        <v>2608.990501197407</v>
+        <v>2705.44763605477</v>
       </c>
       <c r="AC15" t="n">
-        <v>2359.992109504292</v>
+        <v>2447.243510789307</v>
       </c>
       <c r="AD15" t="n">
-        <v>1906816.531493296</v>
+        <v>1977313.552943579</v>
       </c>
       <c r="AE15" t="n">
-        <v>2608990.501197407</v>
+        <v>2705447.63605477</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.289421170856964e-06</v>
+        <v>2.457835751115512e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.19166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2359992.109504292</v>
+        <v>2447243.510789307</v>
       </c>
     </row>
     <row r="16">
@@ -11801,28 +11801,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1881.844547405229</v>
+        <v>1952.341568855512</v>
       </c>
       <c r="AB16" t="n">
-        <v>2574.822730881929</v>
+        <v>2671.279865739291</v>
       </c>
       <c r="AC16" t="n">
-        <v>2329.085263232957</v>
+        <v>2416.336664517972</v>
       </c>
       <c r="AD16" t="n">
-        <v>1881844.547405229</v>
+        <v>1952341.568855512</v>
       </c>
       <c r="AE16" t="n">
-        <v>2574822.730881929</v>
+        <v>2671279.865739292</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.293797717434077e-06</v>
+        <v>2.46617812433442e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.15104166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2329085.263232957</v>
+        <v>2416336.664517972</v>
       </c>
     </row>
     <row r="17">
@@ -11907,28 +11907,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1857.265431441433</v>
+        <v>1927.762452891716</v>
       </c>
       <c r="AB17" t="n">
-        <v>2541.192500066197</v>
+        <v>2637.649634923559</v>
       </c>
       <c r="AC17" t="n">
-        <v>2298.664654445953</v>
+        <v>2385.916055730968</v>
       </c>
       <c r="AD17" t="n">
-        <v>1857265.431441433</v>
+        <v>1927762.452891716</v>
       </c>
       <c r="AE17" t="n">
-        <v>2541192.500066197</v>
+        <v>2637649.634923559</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.297570602414347e-06</v>
+        <v>2.473369825385203e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.115625</v>
       </c>
       <c r="AH17" t="n">
-        <v>2298664.654445953</v>
+        <v>2385916.055730968</v>
       </c>
     </row>
     <row r="18">
@@ -12013,28 +12013,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1832.207429939657</v>
+        <v>1902.704451389941</v>
       </c>
       <c r="AB18" t="n">
-        <v>2506.907036930462</v>
+        <v>2603.364171787825</v>
       </c>
       <c r="AC18" t="n">
-        <v>2267.651347791943</v>
+        <v>2354.902749076958</v>
       </c>
       <c r="AD18" t="n">
-        <v>1832207.429939657</v>
+        <v>1902704.451389941</v>
       </c>
       <c r="AE18" t="n">
-        <v>2506907.036930462</v>
+        <v>2603364.171787825</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.300890741196984e-06</v>
+        <v>2.479698522309892e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2267651.347791943</v>
+        <v>2354902.749076958</v>
       </c>
     </row>
     <row r="19">
@@ -12119,28 +12119,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1808.244244501862</v>
+        <v>1878.741265952145</v>
       </c>
       <c r="AB19" t="n">
-        <v>2474.119549433341</v>
+        <v>2570.576684290704</v>
       </c>
       <c r="AC19" t="n">
-        <v>2237.99305208402</v>
+        <v>2325.244453369035</v>
       </c>
       <c r="AD19" t="n">
-        <v>1808244.244501862</v>
+        <v>1878741.265952145</v>
       </c>
       <c r="AE19" t="n">
-        <v>2474119.549433341</v>
+        <v>2570576.684290704</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.304210879979621e-06</v>
+        <v>2.48602721923458e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.053125</v>
       </c>
       <c r="AH19" t="n">
-        <v>2237993.05208402</v>
+        <v>2325244.453369034</v>
       </c>
     </row>
     <row r="20">
@@ -12225,28 +12225,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1804.261854803621</v>
+        <v>1874.758876253904</v>
       </c>
       <c r="AB20" t="n">
-        <v>2468.670668157574</v>
+        <v>2565.127803014937</v>
       </c>
       <c r="AC20" t="n">
-        <v>2233.064204389659</v>
+        <v>2320.315605674674</v>
       </c>
       <c r="AD20" t="n">
-        <v>1804261.854803621</v>
+        <v>1874758.876253904</v>
       </c>
       <c r="AE20" t="n">
-        <v>2468670.668157574</v>
+        <v>2565127.803014937</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.304361795378832e-06</v>
+        <v>2.486314887276611e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.05208333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2233064.204389659</v>
+        <v>2320315.605674674</v>
       </c>
     </row>
     <row r="21">
@@ -12331,28 +12331,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1810.42059716618</v>
+        <v>1880.917618616463</v>
       </c>
       <c r="AB21" t="n">
-        <v>2477.097331162564</v>
+        <v>2573.554466019927</v>
       </c>
       <c r="AC21" t="n">
-        <v>2240.686638504349</v>
+        <v>2327.938039789364</v>
       </c>
       <c r="AD21" t="n">
-        <v>1810420.59716618</v>
+        <v>1880917.618616463</v>
       </c>
       <c r="AE21" t="n">
-        <v>2477097.331162564</v>
+        <v>2573554.466019927</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.304361795378832e-06</v>
+        <v>2.486314887276611e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.053125</v>
       </c>
       <c r="AH21" t="n">
-        <v>2240686.638504349</v>
+        <v>2327938.039789364</v>
       </c>
     </row>
   </sheetData>
@@ -12628,28 +12628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2609.668773593489</v>
+        <v>2703.669163813614</v>
       </c>
       <c r="AB2" t="n">
-        <v>3570.663946491606</v>
+        <v>3699.279427395325</v>
       </c>
       <c r="AC2" t="n">
-        <v>3229.884790896635</v>
+        <v>3346.22539081586</v>
       </c>
       <c r="AD2" t="n">
-        <v>2609668.773593489</v>
+        <v>2703669.163813614</v>
       </c>
       <c r="AE2" t="n">
-        <v>3570663.946491606</v>
+        <v>3699279.427395325</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004672016689858e-06</v>
+        <v>2.139688469934651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.46041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3229884.790896636</v>
+        <v>3346225.390815861</v>
       </c>
     </row>
     <row r="3">
@@ -12734,28 +12734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1726.613177353274</v>
+        <v>1810.150035573657</v>
       </c>
       <c r="AB3" t="n">
-        <v>2362.428322052128</v>
+        <v>2476.72713685534</v>
       </c>
       <c r="AC3" t="n">
-        <v>2136.961478684446</v>
+        <v>2240.351775022235</v>
       </c>
       <c r="AD3" t="n">
-        <v>1726613.177353274</v>
+        <v>1810150.035573657</v>
       </c>
       <c r="AE3" t="n">
-        <v>2362428.322052128</v>
+        <v>2476727.13685534</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258618614270868e-06</v>
+        <v>2.680528264212468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2136961.478684446</v>
+        <v>2240351.775022234</v>
       </c>
     </row>
     <row r="4">
@@ -12840,28 +12840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1512.235703302538</v>
+        <v>1575.016447758235</v>
       </c>
       <c r="AB4" t="n">
-        <v>2069.107604389245</v>
+        <v>2155.006988644499</v>
       </c>
       <c r="AC4" t="n">
-        <v>1871.634878637096</v>
+        <v>1949.336146219572</v>
       </c>
       <c r="AD4" t="n">
-        <v>1512235.703302538</v>
+        <v>1575016.447758235</v>
       </c>
       <c r="AE4" t="n">
-        <v>2069107.604389245</v>
+        <v>2155006.988644499</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346691605341735e-06</v>
+        <v>2.868100686233223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.02604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1871634.878637096</v>
+        <v>1949336.146219572</v>
       </c>
     </row>
     <row r="5">
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1389.220640195453</v>
+        <v>1462.379396779217</v>
       </c>
       <c r="AB5" t="n">
-        <v>1900.792968004568</v>
+        <v>2000.892006299027</v>
       </c>
       <c r="AC5" t="n">
-        <v>1719.383954917897</v>
+        <v>1809.929681487416</v>
       </c>
       <c r="AD5" t="n">
-        <v>1389220.640195453</v>
+        <v>1462379.396779217</v>
       </c>
       <c r="AE5" t="n">
-        <v>1900792.968004568</v>
+        <v>2000892.006299027</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.391149099878464e-06</v>
+        <v>2.962783514939684e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1719383.954917897</v>
+        <v>1809929.681487416</v>
       </c>
     </row>
     <row r="6">
@@ -13052,28 +13052,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1310.125712484781</v>
+        <v>1372.821116085906</v>
       </c>
       <c r="AB6" t="n">
-        <v>1792.571798488887</v>
+        <v>1878.354415621944</v>
       </c>
       <c r="AC6" t="n">
-        <v>1621.491261931428</v>
+        <v>1699.086906481965</v>
       </c>
       <c r="AD6" t="n">
-        <v>1310125.712484781</v>
+        <v>1372821.116085906</v>
       </c>
       <c r="AE6" t="n">
-        <v>1792571.798488887</v>
+        <v>1878354.415621944</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.417924636360811e-06</v>
+        <v>3.019808400410621e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.37083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1621491.261931428</v>
+        <v>1699086.906481965</v>
       </c>
     </row>
     <row r="7">
@@ -13158,28 +13158,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1288.853487203232</v>
+        <v>1351.548890804357</v>
       </c>
       <c r="AB7" t="n">
-        <v>1763.466201394326</v>
+        <v>1849.248818527382</v>
       </c>
       <c r="AC7" t="n">
-        <v>1595.163462173609</v>
+        <v>1672.759106724146</v>
       </c>
       <c r="AD7" t="n">
-        <v>1288853.487203232</v>
+        <v>1351548.890804357</v>
       </c>
       <c r="AE7" t="n">
-        <v>1763466.201394326</v>
+        <v>1849248.818527382</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425839417585153e-06</v>
+        <v>3.036664813096999e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.30208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1595163.462173609</v>
+        <v>1672759.106724146</v>
       </c>
     </row>
   </sheetData>
@@ -13455,28 +13455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3921.803137233719</v>
+        <v>4031.435846349701</v>
       </c>
       <c r="AB2" t="n">
-        <v>5365.984070106915</v>
+        <v>5515.988379373183</v>
       </c>
       <c r="AC2" t="n">
-        <v>4853.862081661652</v>
+        <v>4989.550190183912</v>
       </c>
       <c r="AD2" t="n">
-        <v>3921803.137233719</v>
+        <v>4031435.846349701</v>
       </c>
       <c r="AE2" t="n">
-        <v>5365984.070106915</v>
+        <v>5515988.379373183</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.320946919024854e-07</v>
+        <v>1.68943990604303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.16770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4853862.081661652</v>
+        <v>4989550.190183912</v>
       </c>
     </row>
     <row r="3">
@@ -13561,28 +13561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2283.314471651285</v>
+        <v>2371.003499166316</v>
       </c>
       <c r="AB3" t="n">
-        <v>3124.131592838597</v>
+        <v>3244.111588851533</v>
       </c>
       <c r="AC3" t="n">
-        <v>2825.968858364193</v>
+        <v>2934.498131950632</v>
       </c>
       <c r="AD3" t="n">
-        <v>2283314.471651285</v>
+        <v>2371003.499166316</v>
       </c>
       <c r="AE3" t="n">
-        <v>3124131.592838597</v>
+        <v>3244111.588851533</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.130295519532979e-06</v>
+        <v>2.294890683600755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.846875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2825968.858364193</v>
+        <v>2934498.131950632</v>
       </c>
     </row>
     <row r="4">
@@ -13667,28 +13667,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1947.815252775029</v>
+        <v>2024.617825098431</v>
       </c>
       <c r="AB4" t="n">
-        <v>2665.086760391001</v>
+        <v>2770.171428134238</v>
       </c>
       <c r="AC4" t="n">
-        <v>2410.734620452045</v>
+        <v>2505.790154993124</v>
       </c>
       <c r="AD4" t="n">
-        <v>1947815.252775029</v>
+        <v>2024617.825098431</v>
       </c>
       <c r="AE4" t="n">
-        <v>2665086.760391002</v>
+        <v>2770171.428134238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23420666692448e-06</v>
+        <v>2.505866238179216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.59583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2410734.620452045</v>
+        <v>2505790.154993124</v>
       </c>
     </row>
     <row r="5">
@@ -13773,28 +13773,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1796.062405107219</v>
+        <v>1861.893270892972</v>
       </c>
       <c r="AB5" t="n">
-        <v>2457.451819348766</v>
+        <v>2547.52451416966</v>
       </c>
       <c r="AC5" t="n">
-        <v>2222.91606676541</v>
+        <v>2304.392350010419</v>
       </c>
       <c r="AD5" t="n">
-        <v>1796062.405107219</v>
+        <v>1861893.270892972</v>
       </c>
       <c r="AE5" t="n">
-        <v>2457451.819348766</v>
+        <v>2547524.51416966</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288014919992327e-06</v>
+        <v>2.615115595123722e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.028125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2222916.06676541</v>
+        <v>2304392.350010419</v>
       </c>
     </row>
     <row r="6">
@@ -13879,28 +13879,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1690.890273234391</v>
+        <v>1767.607504703222</v>
       </c>
       <c r="AB6" t="n">
-        <v>2313.55066865337</v>
+        <v>2418.518569274409</v>
       </c>
       <c r="AC6" t="n">
-        <v>2092.748639925849</v>
+        <v>2187.69855143499</v>
       </c>
       <c r="AD6" t="n">
-        <v>1690890.273234391</v>
+        <v>1767607.504703222</v>
       </c>
       <c r="AE6" t="n">
-        <v>2313550.66865337</v>
+        <v>2418518.569274409</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.320557635919588e-06</v>
+        <v>2.681188559503333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2092748.639925849</v>
+        <v>2187698.55143499</v>
       </c>
     </row>
     <row r="7">
@@ -13985,28 +13985,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1620.851291965314</v>
+        <v>1686.596816896496</v>
       </c>
       <c r="AB7" t="n">
-        <v>2217.72024457924</v>
+        <v>2307.676172277936</v>
       </c>
       <c r="AC7" t="n">
-        <v>2006.064137026509</v>
+        <v>2087.434797239579</v>
       </c>
       <c r="AD7" t="n">
-        <v>1620851.291965314</v>
+        <v>1686596.816896496</v>
       </c>
       <c r="AE7" t="n">
-        <v>2217720.24457924</v>
+        <v>2307676.172277936</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.342950890938842e-06</v>
+        <v>2.726654609249699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.496875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2006064.137026509</v>
+        <v>2087434.797239579</v>
       </c>
     </row>
     <row r="8">
@@ -14091,28 +14091,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1563.570698420521</v>
+        <v>1629.316223351703</v>
       </c>
       <c r="AB8" t="n">
-        <v>2139.346409449816</v>
+        <v>2229.302337148512</v>
       </c>
       <c r="AC8" t="n">
-        <v>1935.170190723469</v>
+        <v>2016.540850936539</v>
       </c>
       <c r="AD8" t="n">
-        <v>1563570.698420521</v>
+        <v>1629316.223351703</v>
       </c>
       <c r="AE8" t="n">
-        <v>2139346.409449816</v>
+        <v>2229302.337148512</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359061146348377e-06</v>
+        <v>2.759363997556438e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.34895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1935170.190723469</v>
+        <v>2016540.850936539</v>
       </c>
     </row>
     <row r="9">
@@ -14197,28 +14197,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1516.757700073986</v>
+        <v>1582.503225005167</v>
       </c>
       <c r="AB9" t="n">
-        <v>2075.294799868358</v>
+        <v>2165.250727567054</v>
       </c>
       <c r="AC9" t="n">
-        <v>1877.231576863466</v>
+        <v>1958.602237076536</v>
       </c>
       <c r="AD9" t="n">
-        <v>1516757.700073986</v>
+        <v>1582503.225005168</v>
       </c>
       <c r="AE9" t="n">
-        <v>2075294.799868358</v>
+        <v>2165250.727567054</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370821632797338e-06</v>
+        <v>2.783241851020357e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.24166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1877231.576863466</v>
+        <v>1958602.237076536</v>
       </c>
     </row>
     <row r="10">
@@ -14303,28 +14303,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1474.776729208783</v>
+        <v>1540.522254139965</v>
       </c>
       <c r="AB10" t="n">
-        <v>2017.854583460865</v>
+        <v>2107.810511159561</v>
       </c>
       <c r="AC10" t="n">
-        <v>1825.273374092054</v>
+        <v>1906.644034305124</v>
       </c>
       <c r="AD10" t="n">
-        <v>1474776.729208783</v>
+        <v>1540522.254139965</v>
       </c>
       <c r="AE10" t="n">
-        <v>2017854.583460865</v>
+        <v>2107810.511159562</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.379360068164391e-06</v>
+        <v>2.800577826822928e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1825273.374092054</v>
+        <v>1906644.034305125</v>
       </c>
     </row>
     <row r="11">
@@ -14409,28 +14409,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1477.275789164583</v>
+        <v>1543.021314095765</v>
       </c>
       <c r="AB11" t="n">
-        <v>2021.273907543135</v>
+        <v>2111.229835241832</v>
       </c>
       <c r="AC11" t="n">
-        <v>1828.366362682964</v>
+        <v>1909.737022896035</v>
       </c>
       <c r="AD11" t="n">
-        <v>1477275.789164583</v>
+        <v>1543021.314095765</v>
       </c>
       <c r="AE11" t="n">
-        <v>2021273.907543135</v>
+        <v>2111229.835241832</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.380165580934868e-06</v>
+        <v>2.802213296238265e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.159375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1828366.362682964</v>
+        <v>1909737.022896035</v>
       </c>
     </row>
   </sheetData>
@@ -14706,28 +14706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1861.102004488338</v>
+        <v>1941.473910864285</v>
       </c>
       <c r="AB2" t="n">
-        <v>2546.441868566629</v>
+        <v>2656.410256628463</v>
       </c>
       <c r="AC2" t="n">
-        <v>2303.413030584239</v>
+        <v>2402.886190031053</v>
       </c>
       <c r="AD2" t="n">
-        <v>1861102.004488338</v>
+        <v>1941473.910864285</v>
       </c>
       <c r="AE2" t="n">
-        <v>2546441.868566629</v>
+        <v>2656410.256628463</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.153796529537671e-06</v>
+        <v>2.569279507079636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.790625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2303413.030584238</v>
+        <v>2402886.190031053</v>
       </c>
     </row>
     <row r="3">
@@ -14812,28 +14812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1336.778233436162</v>
+        <v>1406.933059314524</v>
       </c>
       <c r="AB3" t="n">
-        <v>1829.038953480806</v>
+        <v>1925.027881260063</v>
       </c>
       <c r="AC3" t="n">
-        <v>1654.478042832891</v>
+        <v>1741.305922066202</v>
       </c>
       <c r="AD3" t="n">
-        <v>1336778.233436162</v>
+        <v>1406933.059314524</v>
       </c>
       <c r="AE3" t="n">
-        <v>1829038.953480806</v>
+        <v>1925027.881260063</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.369969412743456e-06</v>
+        <v>3.050654294217794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1654478.042832891</v>
+        <v>1741305.922066202</v>
       </c>
     </row>
     <row r="4">
@@ -14918,28 +14918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1166.852843241875</v>
+        <v>1237.092920466258</v>
       </c>
       <c r="AB4" t="n">
-        <v>1596.539538037849</v>
+        <v>1692.645110469756</v>
       </c>
       <c r="AC4" t="n">
-        <v>1444.168045284831</v>
+        <v>1531.101436768855</v>
       </c>
       <c r="AD4" t="n">
-        <v>1166852.843241875</v>
+        <v>1237092.920466258</v>
       </c>
       <c r="AE4" t="n">
-        <v>1596539.538037849</v>
+        <v>1692645.110469756</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.444300703489782e-06</v>
+        <v>3.216175560021773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.61458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1444168.045284831</v>
+        <v>1531101.436768855</v>
       </c>
     </row>
     <row r="5">
@@ -15024,28 +15024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1146.740181339348</v>
+        <v>1207.10445197588</v>
       </c>
       <c r="AB5" t="n">
-        <v>1569.02050671479</v>
+        <v>1651.613564883364</v>
       </c>
       <c r="AC5" t="n">
-        <v>1419.275391688042</v>
+        <v>1493.985884305092</v>
       </c>
       <c r="AD5" t="n">
-        <v>1146740.181339348</v>
+        <v>1207104.45197588</v>
       </c>
       <c r="AE5" t="n">
-        <v>1569020.50671479</v>
+        <v>1651613.564883364</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.45514432708101e-06</v>
+        <v>3.240322191739059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1419275.391688042</v>
+        <v>1493985.884305092</v>
       </c>
     </row>
   </sheetData>
@@ -15321,28 +15321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9104.764714912855</v>
+        <v>9282.837828972159</v>
       </c>
       <c r="AB2" t="n">
-        <v>12457.54075681498</v>
+        <v>12701.18824750228</v>
       </c>
       <c r="AC2" t="n">
-        <v>11268.61055125235</v>
+        <v>11489.00466738985</v>
       </c>
       <c r="AD2" t="n">
-        <v>9104764.714912856</v>
+        <v>9282837.828972159</v>
       </c>
       <c r="AE2" t="n">
-        <v>12457540.75681498</v>
+        <v>12701188.24750228</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.378168142800236e-07</v>
+        <v>1.01688449281514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>11268610.55125235</v>
+        <v>11489004.66738985</v>
       </c>
     </row>
     <row r="3">
@@ -15427,28 +15427,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3714.365453261419</v>
+        <v>3821.089934009154</v>
       </c>
       <c r="AB3" t="n">
-        <v>5082.158679391263</v>
+        <v>5228.183822302114</v>
       </c>
       <c r="AC3" t="n">
-        <v>4597.124587884475</v>
+        <v>4729.213296103484</v>
       </c>
       <c r="AD3" t="n">
-        <v>3714365.453261419</v>
+        <v>3821089.934009154</v>
       </c>
       <c r="AE3" t="n">
-        <v>5082158.679391263</v>
+        <v>5228183.822302114</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.054346478451789e-07</v>
+        <v>1.711962936457969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.20625</v>
       </c>
       <c r="AH3" t="n">
-        <v>4597124.587884475</v>
+        <v>4729213.296103484</v>
       </c>
     </row>
     <row r="4">
@@ -15533,28 +15533,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2941.809140452553</v>
+        <v>3036.741642218717</v>
       </c>
       <c r="AB4" t="n">
-        <v>4025.113049427034</v>
+        <v>4155.0038864699</v>
       </c>
       <c r="AC4" t="n">
-        <v>3640.961909271211</v>
+        <v>3758.456147129636</v>
       </c>
       <c r="AD4" t="n">
-        <v>2941809.140452554</v>
+        <v>3036741.642218717</v>
       </c>
       <c r="AE4" t="n">
-        <v>4025113.049427034</v>
+        <v>4155003.8864699</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.039888851415185e-06</v>
+        <v>1.966184059661754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.98020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3640961.909271211</v>
+        <v>3758456.147129636</v>
       </c>
     </row>
     <row r="5">
@@ -15639,28 +15639,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2642.987588596532</v>
+        <v>2726.042949543654</v>
       </c>
       <c r="AB5" t="n">
-        <v>3616.252219101148</v>
+        <v>3729.89222809293</v>
       </c>
       <c r="AC5" t="n">
-        <v>3271.122182751864</v>
+        <v>3373.916548780222</v>
       </c>
       <c r="AD5" t="n">
-        <v>2642987.588596532</v>
+        <v>2726042.949543654</v>
       </c>
       <c r="AE5" t="n">
-        <v>3616252.219101148</v>
+        <v>3729892.22809293</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.110929726493886e-06</v>
+        <v>2.100505565247736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.02395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3271122.182751864</v>
+        <v>3373916.548780221</v>
       </c>
     </row>
     <row r="6">
@@ -15745,28 +15745,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2467.879015482088</v>
+        <v>2550.849035574639</v>
       </c>
       <c r="AB6" t="n">
-        <v>3376.660944120928</v>
+        <v>3490.184185990512</v>
       </c>
       <c r="AC6" t="n">
-        <v>3054.397162787298</v>
+        <v>3157.085905783716</v>
       </c>
       <c r="AD6" t="n">
-        <v>2467879.015482088</v>
+        <v>2550849.035574639</v>
       </c>
       <c r="AE6" t="n">
-        <v>3376660.944120928</v>
+        <v>3490184.185990512</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.154302050226146e-06</v>
+        <v>2.182512379184441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.496875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3054397.162787298</v>
+        <v>3157085.905783716</v>
       </c>
     </row>
     <row r="7">
@@ -15851,28 +15851,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2359.535639239326</v>
+        <v>2430.799110713428</v>
       </c>
       <c r="AB7" t="n">
-        <v>3228.420756973152</v>
+        <v>3325.926582566498</v>
       </c>
       <c r="AC7" t="n">
-        <v>2920.304811044502</v>
+        <v>3008.504817493501</v>
       </c>
       <c r="AD7" t="n">
-        <v>2359535.639239326</v>
+        <v>2430799.110713428</v>
       </c>
       <c r="AE7" t="n">
-        <v>3228420.756973152</v>
+        <v>3325926.582566498</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.184513117101721e-06</v>
+        <v>2.239634366823111e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.15208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2920304.811044503</v>
+        <v>3008504.817493502</v>
       </c>
     </row>
     <row r="8">
@@ -15957,28 +15957,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2271.140289764786</v>
+        <v>2354.195561203357</v>
       </c>
       <c r="AB8" t="n">
-        <v>3107.474340094488</v>
+        <v>3221.114226616722</v>
       </c>
       <c r="AC8" t="n">
-        <v>2810.901350443381</v>
+        <v>2913.695605690511</v>
       </c>
       <c r="AD8" t="n">
-        <v>2271140.289764786</v>
+        <v>2354195.561203357</v>
       </c>
       <c r="AE8" t="n">
-        <v>3107474.340094488</v>
+        <v>3221114.226616722</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.206049719230843e-06</v>
+        <v>2.28035499167444e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.91770833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2810901.350443381</v>
+        <v>2913695.605690511</v>
       </c>
     </row>
     <row r="9">
@@ -16063,28 +16063,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2208.680184698699</v>
+        <v>2291.73545613727</v>
       </c>
       <c r="AB9" t="n">
-        <v>3022.013668797704</v>
+        <v>3135.653555319938</v>
       </c>
       <c r="AC9" t="n">
-        <v>2733.59692567036</v>
+        <v>2836.39118091749</v>
       </c>
       <c r="AD9" t="n">
-        <v>2208680.184698699</v>
+        <v>2291735.45613727</v>
       </c>
       <c r="AE9" t="n">
-        <v>3022013.668797704</v>
+        <v>3135653.555319938</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.223099529249731e-06</v>
+        <v>2.312592153015076e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.7375</v>
       </c>
       <c r="AH9" t="n">
-        <v>2733596.92567036</v>
+        <v>2836391.18091749</v>
       </c>
     </row>
     <row r="10">
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2161.304008121642</v>
+        <v>2244.359279560216</v>
       </c>
       <c r="AB10" t="n">
-        <v>2957.191493915403</v>
+        <v>3070.831380437809</v>
       </c>
       <c r="AC10" t="n">
-        <v>2674.961288180446</v>
+        <v>2777.755543427621</v>
       </c>
       <c r="AD10" t="n">
-        <v>2161304.008121642</v>
+        <v>2244359.279560216</v>
       </c>
       <c r="AE10" t="n">
-        <v>2957191.493915403</v>
+        <v>3070831.38043781</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.235812106895394e-06</v>
+        <v>2.336628632962041e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.60520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2674961.288180445</v>
+        <v>2777755.543427621</v>
       </c>
     </row>
     <row r="11">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2122.71510668887</v>
+        <v>2194.063829508996</v>
       </c>
       <c r="AB11" t="n">
-        <v>2904.392456552905</v>
+        <v>3002.01492679907</v>
       </c>
       <c r="AC11" t="n">
-        <v>2627.20131683991</v>
+        <v>2715.506835539666</v>
       </c>
       <c r="AD11" t="n">
-        <v>2122715.106688871</v>
+        <v>2194063.829508996</v>
       </c>
       <c r="AE11" t="n">
-        <v>2904392.456552905</v>
+        <v>3002014.92679907</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.2455334898009e-06</v>
+        <v>2.355009470568544e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2627201.31683991</v>
+        <v>2715506.835539666</v>
       </c>
     </row>
     <row r="12">
@@ -16381,28 +16381,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2083.813453472802</v>
+        <v>2154.991584092332</v>
       </c>
       <c r="AB12" t="n">
-        <v>2851.165498402864</v>
+        <v>2948.554556874009</v>
       </c>
       <c r="AC12" t="n">
-        <v>2579.054264871204</v>
+        <v>2667.148648288264</v>
       </c>
       <c r="AD12" t="n">
-        <v>2083813.453472802</v>
+        <v>2154991.584092332</v>
       </c>
       <c r="AE12" t="n">
-        <v>2851165.498402864</v>
+        <v>2948554.556874008</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.255105312969399e-06</v>
+        <v>2.373107526058023e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.4125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2579054.264871204</v>
+        <v>2667148.648288264</v>
       </c>
     </row>
     <row r="13">
@@ -16487,28 +16487,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2054.043630394327</v>
+        <v>2125.221761013857</v>
       </c>
       <c r="AB13" t="n">
-        <v>2810.433113114992</v>
+        <v>2907.822171586136</v>
       </c>
       <c r="AC13" t="n">
-        <v>2542.209321266945</v>
+        <v>2630.303704684004</v>
       </c>
       <c r="AD13" t="n">
-        <v>2054043.630394327</v>
+        <v>2125221.761013857</v>
       </c>
       <c r="AE13" t="n">
-        <v>2810433.113114992</v>
+        <v>2907822.171586136</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.261685941397742e-06</v>
+        <v>2.385549939207041e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.34791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2542209.321266945</v>
+        <v>2630303.704684004</v>
       </c>
     </row>
     <row r="14">
@@ -16593,28 +16593,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2024.344367878449</v>
+        <v>2095.52249849798</v>
       </c>
       <c r="AB14" t="n">
-        <v>2769.797271901778</v>
+        <v>2867.186330372921</v>
       </c>
       <c r="AC14" t="n">
-        <v>2505.451707706359</v>
+        <v>2593.546091123419</v>
       </c>
       <c r="AD14" t="n">
-        <v>2024344.367878449</v>
+        <v>2095522.49849798</v>
       </c>
       <c r="AE14" t="n">
-        <v>2769797.271901778</v>
+        <v>2867186.330372922</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.267817890615061e-06</v>
+        <v>2.397144006004989e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.2875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2505451.707706359</v>
+        <v>2593546.091123418</v>
       </c>
     </row>
     <row r="15">
@@ -16699,28 +16699,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1999.196348949502</v>
+        <v>2070.374479569033</v>
       </c>
       <c r="AB15" t="n">
-        <v>2735.388642950899</v>
+        <v>2832.777701422043</v>
       </c>
       <c r="AC15" t="n">
-        <v>2474.326990009738</v>
+        <v>2562.421373426797</v>
       </c>
       <c r="AD15" t="n">
-        <v>1999196.348949502</v>
+        <v>2070374.479569033</v>
       </c>
       <c r="AE15" t="n">
-        <v>2735388.642950899</v>
+        <v>2832777.701422043</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.272753361936319e-06</v>
+        <v>2.406475815866752e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.240625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2474326.990009738</v>
+        <v>2562421.373426797</v>
       </c>
     </row>
     <row r="16">
@@ -16805,28 +16805,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1972.738785461476</v>
+        <v>2043.916916081006</v>
       </c>
       <c r="AB16" t="n">
-        <v>2699.188237361259</v>
+        <v>2796.577295832402</v>
       </c>
       <c r="AC16" t="n">
-        <v>2441.581500321984</v>
+        <v>2529.675883739043</v>
       </c>
       <c r="AD16" t="n">
-        <v>1972738.785461476</v>
+        <v>2043916.916081006</v>
       </c>
       <c r="AE16" t="n">
-        <v>2699188.237361259</v>
+        <v>2796577.295832403</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277240154046552e-06</v>
+        <v>2.414959279377445e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.19791666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2441581.500321984</v>
+        <v>2529675.883739043</v>
       </c>
     </row>
     <row r="17">
@@ -16911,28 +16911,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1948.998216394612</v>
+        <v>2020.176347014143</v>
       </c>
       <c r="AB17" t="n">
-        <v>2666.705343403988</v>
+        <v>2764.094401875131</v>
       </c>
       <c r="AC17" t="n">
-        <v>2412.198728173967</v>
+        <v>2500.293111591026</v>
       </c>
       <c r="AD17" t="n">
-        <v>1948998.216394612</v>
+        <v>2020176.347014143</v>
       </c>
       <c r="AE17" t="n">
-        <v>2666705.343403988</v>
+        <v>2764094.401875131</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.281278266945763e-06</v>
+        <v>2.42259439653707e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.15833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2412198.728173967</v>
+        <v>2500293.111591026</v>
       </c>
     </row>
     <row r="18">
@@ -17017,28 +17017,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1925.446912868983</v>
+        <v>1996.625043488513</v>
       </c>
       <c r="AB18" t="n">
-        <v>2634.48141091004</v>
+        <v>2731.870469381184</v>
       </c>
       <c r="AC18" t="n">
-        <v>2383.050202570668</v>
+        <v>2471.144585987727</v>
       </c>
       <c r="AD18" t="n">
-        <v>1925446.912868983</v>
+        <v>1996625.043488513</v>
       </c>
       <c r="AE18" t="n">
-        <v>2634481.41091004</v>
+        <v>2731870.469381184</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.285017260370957e-06</v>
+        <v>2.429663949462647e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.12395833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2383050.202570668</v>
+        <v>2471144.585987727</v>
       </c>
     </row>
     <row r="19">
@@ -17123,28 +17123,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1902.583384401918</v>
+        <v>1973.761515021449</v>
       </c>
       <c r="AB19" t="n">
-        <v>2603.198522593714</v>
+        <v>2700.587581064858</v>
       </c>
       <c r="AC19" t="n">
-        <v>2354.752909209443</v>
+        <v>2442.847292626503</v>
       </c>
       <c r="AD19" t="n">
-        <v>1902583.384401918</v>
+        <v>1973761.515021449</v>
       </c>
       <c r="AE19" t="n">
-        <v>2603198.522593714</v>
+        <v>2700587.581064858</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.288457134322137e-06</v>
+        <v>2.436167938154179e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.090625</v>
       </c>
       <c r="AH19" t="n">
-        <v>2354752.909209443</v>
+        <v>2442847.292626502</v>
       </c>
     </row>
     <row r="20">
@@ -17229,28 +17229,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1881.744972031775</v>
+        <v>1952.923102651306</v>
       </c>
       <c r="AB20" t="n">
-        <v>2574.686487463014</v>
+        <v>2672.075545934158</v>
       </c>
       <c r="AC20" t="n">
-        <v>2328.962022694725</v>
+        <v>2417.056406111783</v>
       </c>
       <c r="AD20" t="n">
-        <v>1881744.972031775</v>
+        <v>1952923.102651306</v>
       </c>
       <c r="AE20" t="n">
-        <v>2574686.487463014</v>
+        <v>2672075.545934157</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.291149209588277e-06</v>
+        <v>2.441258016260595e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.065625</v>
       </c>
       <c r="AH20" t="n">
-        <v>2328962.022694725</v>
+        <v>2417056.406111783</v>
       </c>
     </row>
     <row r="21">
@@ -17335,28 +17335,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1859.53946032121</v>
+        <v>1930.71759094074</v>
       </c>
       <c r="AB21" t="n">
-        <v>2544.303926702581</v>
+        <v>2641.692985173725</v>
       </c>
       <c r="AC21" t="n">
-        <v>2301.479130891074</v>
+        <v>2389.573514308135</v>
       </c>
       <c r="AD21" t="n">
-        <v>1859539.46032121</v>
+        <v>1930717.59094074</v>
       </c>
       <c r="AE21" t="n">
-        <v>2544303.926702581</v>
+        <v>2641692.985173725</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.293990844591425e-06</v>
+        <v>2.446630876484035e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.03854166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2301479.130891074</v>
+        <v>2389573.514308135</v>
       </c>
     </row>
     <row r="22">
@@ -17441,28 +17441,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1859.432162488368</v>
+        <v>1930.610293107899</v>
       </c>
       <c r="AB22" t="n">
-        <v>2544.157117074041</v>
+        <v>2641.546175545184</v>
       </c>
       <c r="AC22" t="n">
-        <v>2301.346332567434</v>
+        <v>2389.440715984494</v>
       </c>
       <c r="AD22" t="n">
-        <v>1859432.162488368</v>
+        <v>1930610.293107899</v>
       </c>
       <c r="AE22" t="n">
-        <v>2544157.117074041</v>
+        <v>2641546.175545184</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.294140404328433e-06</v>
+        <v>2.446913658601058e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.0375</v>
       </c>
       <c r="AH22" t="n">
-        <v>2301346.332567434</v>
+        <v>2389440.715984493</v>
       </c>
     </row>
     <row r="23">
@@ -17547,28 +17547,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1867.05400182878</v>
+        <v>1938.23213244831</v>
       </c>
       <c r="AB23" t="n">
-        <v>2554.585653911413</v>
+        <v>2651.974712382556</v>
       </c>
       <c r="AC23" t="n">
-        <v>2310.77958448559</v>
+        <v>2398.87396790265</v>
       </c>
       <c r="AD23" t="n">
-        <v>1867054.00182878</v>
+        <v>1938232.13244831</v>
       </c>
       <c r="AE23" t="n">
-        <v>2554585.653911413</v>
+        <v>2651974.712382556</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.294140404328433e-06</v>
+        <v>2.446913658601058e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.03854166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2310779.58448559</v>
+        <v>2398873.96790265</v>
       </c>
     </row>
   </sheetData>
@@ -17844,28 +17844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1502.069632820895</v>
+        <v>1580.381003844714</v>
       </c>
       <c r="AB2" t="n">
-        <v>2055.197938260884</v>
+        <v>2162.347010949531</v>
       </c>
       <c r="AC2" t="n">
-        <v>1859.052731521688</v>
+        <v>1955.975647097598</v>
       </c>
       <c r="AD2" t="n">
-        <v>1502069.632820895</v>
+        <v>1580381.003844714</v>
       </c>
       <c r="AE2" t="n">
-        <v>2055197.938260884</v>
+        <v>2162347.010949531</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246820420682258e-06</v>
+        <v>2.858419037413338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1859052.731521688</v>
+        <v>1955975.647097598</v>
       </c>
     </row>
     <row r="3">
@@ -17950,28 +17950,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1105.342028632638</v>
+        <v>1173.853810671658</v>
       </c>
       <c r="AB3" t="n">
-        <v>1512.377727823872</v>
+        <v>1606.118570536163</v>
       </c>
       <c r="AC3" t="n">
-        <v>1368.038520115833</v>
+        <v>1452.832868365762</v>
       </c>
       <c r="AD3" t="n">
-        <v>1105342.028632639</v>
+        <v>1173853.810671658</v>
       </c>
       <c r="AE3" t="n">
-        <v>1512377.727823872</v>
+        <v>1606118.570536163</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.440662871959732e-06</v>
+        <v>3.302815795598615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1368038.520115833</v>
+        <v>1452832.868365762</v>
       </c>
     </row>
     <row r="4">
@@ -18056,28 +18056,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1059.194723972156</v>
+        <v>1127.706506011176</v>
       </c>
       <c r="AB4" t="n">
-        <v>1449.236949712003</v>
+        <v>1542.977792424294</v>
       </c>
       <c r="AC4" t="n">
-        <v>1310.923809248323</v>
+        <v>1395.718157498251</v>
       </c>
       <c r="AD4" t="n">
-        <v>1059194.723972156</v>
+        <v>1127706.506011176</v>
       </c>
       <c r="AE4" t="n">
-        <v>1449236.949712003</v>
+        <v>1542977.792424294</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.467152883768658e-06</v>
+        <v>3.363545915830768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1310923.809248323</v>
+        <v>1395718.157498251</v>
       </c>
     </row>
   </sheetData>
@@ -18353,28 +18353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5647.530248433237</v>
+        <v>5784.103144232528</v>
       </c>
       <c r="AB2" t="n">
-        <v>7727.200037357131</v>
+        <v>7914.065098560659</v>
       </c>
       <c r="AC2" t="n">
-        <v>6989.726910984841</v>
+        <v>7158.757833013859</v>
       </c>
       <c r="AD2" t="n">
-        <v>5647530.248433237</v>
+        <v>5784103.144232528</v>
       </c>
       <c r="AE2" t="n">
-        <v>7727200.037357131</v>
+        <v>7914065.098560659</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.923953031639567e-07</v>
+        <v>1.357085225343838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>6989726.910984841</v>
+        <v>7158757.83301386</v>
       </c>
     </row>
     <row r="3">
@@ -18459,28 +18459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2861.292891004879</v>
+        <v>2952.455216338135</v>
       </c>
       <c r="AB3" t="n">
-        <v>3914.94716480649</v>
+        <v>4039.679480125408</v>
       </c>
       <c r="AC3" t="n">
-        <v>3541.310102060067</v>
+        <v>3654.138140267845</v>
       </c>
       <c r="AD3" t="n">
-        <v>2861292.891004879</v>
+        <v>2952455.216338135</v>
       </c>
       <c r="AE3" t="n">
-        <v>3914947.16480649</v>
+        <v>4039679.480125408</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024210164370308e-06</v>
+        <v>2.007437767648745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3541310.102060067</v>
+        <v>3654138.140267845</v>
       </c>
     </row>
     <row r="4">
@@ -18565,28 +18565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2372.682944619848</v>
+        <v>2452.364727940426</v>
       </c>
       <c r="AB4" t="n">
-        <v>3246.409480212959</v>
+        <v>3355.433611464363</v>
       </c>
       <c r="AC4" t="n">
-        <v>2936.576715785634</v>
+        <v>3035.195736966729</v>
       </c>
       <c r="AD4" t="n">
-        <v>2372682.944619847</v>
+        <v>2452364.727940426</v>
       </c>
       <c r="AE4" t="n">
-        <v>3246409.480212959</v>
+        <v>3355433.611464363</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.143470707268749e-06</v>
+        <v>2.241186783556835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.165625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2936576.715785634</v>
+        <v>3035195.736966729</v>
       </c>
     </row>
     <row r="5">
@@ -18671,28 +18671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2156.708069766019</v>
+        <v>2236.304512232029</v>
       </c>
       <c r="AB5" t="n">
-        <v>2950.903128298749</v>
+        <v>3059.810492428127</v>
       </c>
       <c r="AC5" t="n">
-        <v>2669.273075352467</v>
+        <v>2767.786473501669</v>
       </c>
       <c r="AD5" t="n">
-        <v>2156708.069766019</v>
+        <v>2236304.512232028</v>
       </c>
       <c r="AE5" t="n">
-        <v>2950903.128298749</v>
+        <v>3059810.492428127</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.204889109413317e-06</v>
+        <v>2.361566002961914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.44270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2669273.075352468</v>
+        <v>2767786.473501669</v>
       </c>
     </row>
     <row r="6">
@@ -18777,28 +18777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2036.797618952607</v>
+        <v>2105.1694524611</v>
       </c>
       <c r="AB6" t="n">
-        <v>2786.836359420104</v>
+        <v>2880.385718378835</v>
       </c>
       <c r="AC6" t="n">
-        <v>2520.864608626445</v>
+        <v>2605.485748063504</v>
       </c>
       <c r="AD6" t="n">
-        <v>2036797.618952607</v>
+        <v>2105169.4524611</v>
       </c>
       <c r="AE6" t="n">
-        <v>2786836.359420103</v>
+        <v>2880385.718378834</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.24251759882847e-06</v>
+        <v>2.435317322192367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.03541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2520864.608626445</v>
+        <v>2605485.748063504</v>
       </c>
     </row>
     <row r="7">
@@ -18883,28 +18883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1945.03858808547</v>
+        <v>2024.720281897498</v>
       </c>
       <c r="AB7" t="n">
-        <v>2661.287605264948</v>
+        <v>2770.311614046797</v>
       </c>
       <c r="AC7" t="n">
-        <v>2407.298051359074</v>
+        <v>2505.91696175894</v>
       </c>
       <c r="AD7" t="n">
-        <v>1945038.58808547</v>
+        <v>2024720.281897498</v>
       </c>
       <c r="AE7" t="n">
-        <v>2661287.605264948</v>
+        <v>2770311.614046797</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.267395938937663e-06</v>
+        <v>2.484078524989361e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.78020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2407298.051359074</v>
+        <v>2505916.96175894</v>
       </c>
     </row>
     <row r="8">
@@ -18989,28 +18989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1882.406946953598</v>
+        <v>1962.088640765626</v>
       </c>
       <c r="AB8" t="n">
-        <v>2575.592230755325</v>
+        <v>2684.616239537173</v>
       </c>
       <c r="AC8" t="n">
-        <v>2329.781323118435</v>
+        <v>2428.400233518301</v>
       </c>
       <c r="AD8" t="n">
-        <v>1882406.946953598</v>
+        <v>1962088.640765626</v>
       </c>
       <c r="AE8" t="n">
-        <v>2575592.230755325</v>
+        <v>2684616.239537173</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.286365673270922e-06</v>
+        <v>2.521258942122069e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.590625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2329781.323118435</v>
+        <v>2428400.233518302</v>
       </c>
     </row>
     <row r="9">
@@ -19095,28 +19095,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1831.962354507195</v>
+        <v>1900.248847161116</v>
       </c>
       <c r="AB9" t="n">
-        <v>2506.571713911802</v>
+        <v>2600.004305748335</v>
       </c>
       <c r="AC9" t="n">
-        <v>2267.348027531555</v>
+        <v>2351.863543936676</v>
       </c>
       <c r="AD9" t="n">
-        <v>1831962.354507195</v>
+        <v>1900248.847161116</v>
       </c>
       <c r="AE9" t="n">
-        <v>2506571.713911802</v>
+        <v>2600004.305748336</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.300359739582342e-06</v>
+        <v>2.548687118695378e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.45520833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2267348.027531554</v>
+        <v>2351863.543936676</v>
       </c>
     </row>
     <row r="10">
@@ -19201,28 +19201,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1787.063326032326</v>
+        <v>1855.349818686248</v>
       </c>
       <c r="AB10" t="n">
-        <v>2445.138882347148</v>
+        <v>2538.571474183681</v>
       </c>
       <c r="AC10" t="n">
-        <v>2211.778259189911</v>
+        <v>2296.293775595032</v>
       </c>
       <c r="AD10" t="n">
-        <v>1787063.326032326</v>
+        <v>1855349.818686248</v>
       </c>
       <c r="AE10" t="n">
-        <v>2445138.882347148</v>
+        <v>2538571.474183681</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.311554992631479e-06</v>
+        <v>2.570629659954026e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.35</v>
       </c>
       <c r="AH10" t="n">
-        <v>2211778.259189911</v>
+        <v>2296293.775595032</v>
       </c>
     </row>
     <row r="11">
@@ -19307,28 +19307,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1749.663195663196</v>
+        <v>1817.949688317117</v>
       </c>
       <c r="AB11" t="n">
-        <v>2393.966373998802</v>
+        <v>2487.398965835335</v>
       </c>
       <c r="AC11" t="n">
-        <v>2165.489583217264</v>
+        <v>2250.005099622385</v>
       </c>
       <c r="AD11" t="n">
-        <v>1749663.195663196</v>
+        <v>1817949.688317117</v>
       </c>
       <c r="AE11" t="n">
-        <v>2393966.373998802</v>
+        <v>2487398.965835335</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.319951432418331e-06</v>
+        <v>2.587086565898011e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.27083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2165489.583217264</v>
+        <v>2250005.099622385</v>
       </c>
     </row>
     <row r="12">
@@ -19413,28 +19413,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1713.658727252712</v>
+        <v>1781.945219906633</v>
       </c>
       <c r="AB12" t="n">
-        <v>2344.703471914535</v>
+        <v>2438.136063751069</v>
       </c>
       <c r="AC12" t="n">
-        <v>2120.928263367003</v>
+        <v>2205.443779772124</v>
       </c>
       <c r="AD12" t="n">
-        <v>1713658.727252712</v>
+        <v>1781945.219906633</v>
       </c>
       <c r="AE12" t="n">
-        <v>2344703.471914535</v>
+        <v>2438136.063751069</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.327259444825407e-06</v>
+        <v>2.601410169219628e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.20416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2120928.263367003</v>
+        <v>2205443.779772124</v>
       </c>
     </row>
     <row r="13">
@@ -19519,28 +19519,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1677.887753016037</v>
+        <v>1746.174245669958</v>
       </c>
       <c r="AB13" t="n">
-        <v>2295.76004685991</v>
+        <v>2389.192638696443</v>
       </c>
       <c r="AC13" t="n">
-        <v>2076.655930107063</v>
+        <v>2161.171446512183</v>
       </c>
       <c r="AD13" t="n">
-        <v>1677887.753016037</v>
+        <v>1746174.245669958</v>
       </c>
       <c r="AE13" t="n">
-        <v>2295760.04685991</v>
+        <v>2389192.638696443</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.333945498729752e-06</v>
+        <v>2.61451474247132e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.14270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2076655.930107063</v>
+        <v>2161171.446512183</v>
       </c>
     </row>
     <row r="14">
@@ -19625,28 +19625,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1647.460268043697</v>
+        <v>1715.746760697618</v>
       </c>
       <c r="AB14" t="n">
-        <v>2254.127819554858</v>
+        <v>2347.560411391391</v>
       </c>
       <c r="AC14" t="n">
-        <v>2038.997024144805</v>
+        <v>2123.512540549927</v>
       </c>
       <c r="AD14" t="n">
-        <v>1647460.268043697</v>
+        <v>1715746.760697618</v>
       </c>
       <c r="AE14" t="n">
-        <v>2254127.819554857</v>
+        <v>2347560.41139139</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.339076656377273e-06</v>
+        <v>2.6245717405482e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.09583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2038997.024144806</v>
+        <v>2123512.540549926</v>
       </c>
     </row>
     <row r="15">
@@ -19731,28 +19731,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1641.730534470279</v>
+        <v>1710.0170271242</v>
       </c>
       <c r="AB15" t="n">
-        <v>2246.288145301702</v>
+        <v>2339.720737138235</v>
       </c>
       <c r="AC15" t="n">
-        <v>2031.905557399319</v>
+        <v>2116.42107380444</v>
       </c>
       <c r="AD15" t="n">
-        <v>1641730.534470279</v>
+        <v>1710017.0271242</v>
       </c>
       <c r="AE15" t="n">
-        <v>2246288.145301702</v>
+        <v>2339720.737138235</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.340009594131368e-06</v>
+        <v>2.626400285653087e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.08645833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2031905.557399319</v>
+        <v>2116421.07380444</v>
       </c>
     </row>
     <row r="16">
@@ -19837,28 +19837,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1649.845568363864</v>
+        <v>1718.132061017785</v>
       </c>
       <c r="AB16" t="n">
-        <v>2257.391492684933</v>
+        <v>2350.824084521467</v>
       </c>
       <c r="AC16" t="n">
-        <v>2041.949216891941</v>
+        <v>2126.464733297062</v>
       </c>
       <c r="AD16" t="n">
-        <v>1649845.568363864</v>
+        <v>1718132.061017785</v>
       </c>
       <c r="AE16" t="n">
-        <v>2257391.492684933</v>
+        <v>2350824.084521467</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.339854104505685e-06</v>
+        <v>2.626095528135606e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.08854166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2041949.216891941</v>
+        <v>2126464.733297062</v>
       </c>
     </row>
   </sheetData>
@@ -20134,28 +20134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7154.715626250259</v>
+        <v>7317.587226265181</v>
       </c>
       <c r="AB2" t="n">
-        <v>9789.397563612574</v>
+        <v>10012.24567214088</v>
       </c>
       <c r="AC2" t="n">
-        <v>8855.111199646795</v>
+        <v>9056.690997466432</v>
       </c>
       <c r="AD2" t="n">
-        <v>7154715.62625026</v>
+        <v>7317587.226265181</v>
       </c>
       <c r="AE2" t="n">
-        <v>9789397.563612575</v>
+        <v>10012245.67214088</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.115283043036605e-07</v>
+        <v>1.175787354948808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.95104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8855111.199646795</v>
+        <v>9056690.997466432</v>
       </c>
     </row>
     <row r="3">
@@ -20240,28 +20240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3269.513012379991</v>
+        <v>3362.594779162007</v>
       </c>
       <c r="AB3" t="n">
-        <v>4473.491944272666</v>
+        <v>4600.850524061558</v>
       </c>
       <c r="AC3" t="n">
-        <v>4046.548151696491</v>
+        <v>4161.751807379215</v>
       </c>
       <c r="AD3" t="n">
-        <v>3269513.012379991</v>
+        <v>3362594.779162007</v>
       </c>
       <c r="AE3" t="n">
-        <v>4473491.944272666</v>
+        <v>4600850.524061558</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.629971129804282e-07</v>
+        <v>1.851557516350627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.48020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4046548.151696491</v>
+        <v>4161751.807379215</v>
       </c>
     </row>
     <row r="4">
@@ -20346,28 +20346,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2653.746875356936</v>
+        <v>2746.828552630402</v>
       </c>
       <c r="AB4" t="n">
-        <v>3630.973549912967</v>
+        <v>3758.33200723231</v>
       </c>
       <c r="AC4" t="n">
-        <v>3284.43853041252</v>
+        <v>3399.642075314017</v>
       </c>
       <c r="AD4" t="n">
-        <v>2653746.875356936</v>
+        <v>2746828.552630402</v>
       </c>
       <c r="AE4" t="n">
-        <v>3630973.549912967</v>
+        <v>3758332.00723231</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.089446662699421e-06</v>
+        <v>2.094682455216474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.56666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3284438.53041252</v>
+        <v>3399642.075314017</v>
       </c>
     </row>
     <row r="5">
@@ -20452,28 +20452,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2393.131758618083</v>
+        <v>2474.652899480116</v>
       </c>
       <c r="AB5" t="n">
-        <v>3274.388449663352</v>
+        <v>3385.9292710497</v>
       </c>
       <c r="AC5" t="n">
-        <v>2961.885411660411</v>
+        <v>3062.780933602167</v>
       </c>
       <c r="AD5" t="n">
-        <v>2393131.758618083</v>
+        <v>2474652.899480116</v>
       </c>
       <c r="AE5" t="n">
-        <v>3274388.449663352</v>
+        <v>3385929.2710497</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.155870763515663e-06</v>
+        <v>2.222396278524317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2961885.41166041</v>
+        <v>3062780.933602167</v>
       </c>
     </row>
     <row r="6">
@@ -20558,28 +20558,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2253.384565765234</v>
+        <v>2334.735114426674</v>
       </c>
       <c r="AB6" t="n">
-        <v>3083.180175191042</v>
+        <v>3194.487584802544</v>
       </c>
       <c r="AC6" t="n">
-        <v>2788.925786541247</v>
+        <v>2889.610173200353</v>
       </c>
       <c r="AD6" t="n">
-        <v>2253384.565765234</v>
+        <v>2334735.114426674</v>
       </c>
       <c r="AE6" t="n">
-        <v>3083180.175191042</v>
+        <v>3194487.584802544</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.196547907822857e-06</v>
+        <v>2.300606349219716e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.26354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2788925.786541247</v>
+        <v>2889610.173200353</v>
       </c>
     </row>
     <row r="7">
@@ -20664,28 +20664,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2145.359218395909</v>
+        <v>2226.795018403372</v>
       </c>
       <c r="AB7" t="n">
-        <v>2935.375129178179</v>
+        <v>3046.799183442501</v>
       </c>
       <c r="AC7" t="n">
-        <v>2655.227046674282</v>
+        <v>2756.016945584145</v>
       </c>
       <c r="AD7" t="n">
-        <v>2145359.218395909</v>
+        <v>2226795.018403372</v>
       </c>
       <c r="AE7" t="n">
-        <v>2935375.129178178</v>
+        <v>3046799.1834425</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.225189492578485e-06</v>
+        <v>2.355675612480896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2655227.046674282</v>
+        <v>2756016.945584145</v>
       </c>
     </row>
     <row r="8">
@@ -20770,28 +20770,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2078.97214248264</v>
+        <v>2160.4079424901</v>
       </c>
       <c r="AB8" t="n">
-        <v>2844.541403122558</v>
+        <v>2955.965457386701</v>
       </c>
       <c r="AC8" t="n">
-        <v>2573.062363947473</v>
+        <v>2673.85226285729</v>
       </c>
       <c r="AD8" t="n">
-        <v>2078972.14248264</v>
+        <v>2160407.9424901</v>
       </c>
       <c r="AE8" t="n">
-        <v>2844541.403122558</v>
+        <v>2955965.457386701</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.244537797174042e-06</v>
+        <v>2.392876657343501e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.75104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2573062.363947473</v>
+        <v>2673852.26285729</v>
       </c>
     </row>
     <row r="9">
@@ -20876,28 +20876,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2023.962639658968</v>
+        <v>2105.398439666429</v>
       </c>
       <c r="AB9" t="n">
-        <v>2769.274974511224</v>
+        <v>2880.699028775368</v>
       </c>
       <c r="AC9" t="n">
-        <v>2504.979257645709</v>
+        <v>2605.769156555526</v>
       </c>
       <c r="AD9" t="n">
-        <v>2023962.639658968</v>
+        <v>2105398.439666429</v>
       </c>
       <c r="AE9" t="n">
-        <v>2769274.974511224</v>
+        <v>2880699.028775368</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259925031537437e-06</v>
+        <v>2.422461740265731e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.59479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2504979.257645709</v>
+        <v>2605769.156555526</v>
       </c>
     </row>
     <row r="10">
@@ -20982,28 +20982,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1978.032998194363</v>
+        <v>2047.82301044437</v>
       </c>
       <c r="AB10" t="n">
-        <v>2706.432012786577</v>
+        <v>2801.921786465077</v>
       </c>
       <c r="AC10" t="n">
-        <v>2448.133939987412</v>
+        <v>2534.510303686775</v>
       </c>
       <c r="AD10" t="n">
-        <v>1978032.998194363</v>
+        <v>2047823.01044437</v>
       </c>
       <c r="AE10" t="n">
-        <v>2706432.012786577</v>
+        <v>2801921.786465077</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271960591089004e-06</v>
+        <v>2.44560254769995e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.47604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2448133.939987412</v>
+        <v>2534510.303686775</v>
       </c>
     </row>
     <row r="11">
@@ -21088,28 +21088,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1941.209787358365</v>
+        <v>2010.999799608373</v>
       </c>
       <c r="AB11" t="n">
-        <v>2656.048871195356</v>
+        <v>2751.538644873858</v>
       </c>
       <c r="AC11" t="n">
-        <v>2402.559294716475</v>
+        <v>2488.935658415838</v>
       </c>
       <c r="AD11" t="n">
-        <v>1941209.787358365</v>
+        <v>2010999.799608373</v>
       </c>
       <c r="AE11" t="n">
-        <v>2656048.871195356</v>
+        <v>2751538.644873857</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.280644475828742e-06</v>
+        <v>2.462299079646159e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.39166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2402559.294716475</v>
+        <v>2488935.658415838</v>
       </c>
     </row>
     <row r="12">
@@ -21194,28 +21194,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1905.614289246933</v>
+        <v>1975.40430149694</v>
       </c>
       <c r="AB12" t="n">
-        <v>2607.345540316749</v>
+        <v>2702.835313995249</v>
       </c>
       <c r="AC12" t="n">
-        <v>2358.504141381366</v>
+        <v>2444.88050508073</v>
       </c>
       <c r="AD12" t="n">
-        <v>1905614.289246933</v>
+        <v>1975404.30149694</v>
       </c>
       <c r="AE12" t="n">
-        <v>2607345.540316748</v>
+        <v>2702835.313995249</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.289176011713397e-06</v>
+        <v>2.478702689979276e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.309375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2358504.141381367</v>
+        <v>2444880.505080731</v>
       </c>
     </row>
     <row r="13">
@@ -21300,28 +21300,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1873.558609107388</v>
+        <v>1943.348621357395</v>
       </c>
       <c r="AB13" t="n">
-        <v>2563.485544553025</v>
+        <v>2658.975318231525</v>
       </c>
       <c r="AC13" t="n">
-        <v>2318.830082055442</v>
+        <v>2405.206445754805</v>
       </c>
       <c r="AD13" t="n">
-        <v>1873558.609107388</v>
+        <v>1943348.621357395</v>
       </c>
       <c r="AE13" t="n">
-        <v>2563485.544553025</v>
+        <v>2658975.318231525</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.296031710192138e-06</v>
+        <v>2.491884162568388e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.24375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2318830.082055442</v>
+        <v>2405206.445754806</v>
       </c>
     </row>
     <row r="14">
@@ -21406,28 +21406,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1842.660617015325</v>
+        <v>1912.450629265333</v>
       </c>
       <c r="AB14" t="n">
-        <v>2521.209548649458</v>
+        <v>2616.699322327958</v>
       </c>
       <c r="AC14" t="n">
-        <v>2280.588847866179</v>
+        <v>2366.965211565542</v>
       </c>
       <c r="AD14" t="n">
-        <v>1842660.617015325</v>
+        <v>1912450.629265333</v>
       </c>
       <c r="AE14" t="n">
-        <v>2521209.548649458</v>
+        <v>2616699.322327958</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.301820966685296e-06</v>
+        <v>2.503015183865861e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.190625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2280588.847866178</v>
+        <v>2366965.211565542</v>
       </c>
     </row>
     <row r="15">
@@ -21512,28 +21512,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1816.244336735358</v>
+        <v>1886.034348985365</v>
       </c>
       <c r="AB15" t="n">
-        <v>2485.06562856637</v>
+        <v>2580.55540224487</v>
       </c>
       <c r="AC15" t="n">
-        <v>2247.89445278751</v>
+        <v>2334.270816486874</v>
       </c>
       <c r="AD15" t="n">
-        <v>1816244.336735358</v>
+        <v>1886034.348985365</v>
       </c>
       <c r="AE15" t="n">
-        <v>2485065.62856637</v>
+        <v>2580555.40224487</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.305934385772541e-06</v>
+        <v>2.510924067419328e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.15208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2247894.45278751</v>
+        <v>2334270.816486874</v>
       </c>
     </row>
     <row r="16">
@@ -21618,28 +21618,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1787.736104633501</v>
+        <v>1857.526116883508</v>
       </c>
       <c r="AB16" t="n">
-        <v>2446.059407710174</v>
+        <v>2541.549181388674</v>
       </c>
       <c r="AC16" t="n">
-        <v>2212.610930904254</v>
+        <v>2298.987294603618</v>
       </c>
       <c r="AD16" t="n">
-        <v>1787736.104633501</v>
+        <v>1857526.116883508</v>
       </c>
       <c r="AE16" t="n">
-        <v>2446059.407710174</v>
+        <v>2541549.181388674</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.310352502569951e-06</v>
+        <v>2.519418794198978e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.11145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2212610.930904254</v>
+        <v>2298987.294603618</v>
       </c>
     </row>
     <row r="17">
@@ -21724,28 +21724,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1758.269279835906</v>
+        <v>1828.059292085914</v>
       </c>
       <c r="AB17" t="n">
-        <v>2405.741598037542</v>
+        <v>2501.231371716043</v>
       </c>
       <c r="AC17" t="n">
-        <v>2176.140996400378</v>
+        <v>2262.517360099741</v>
       </c>
       <c r="AD17" t="n">
-        <v>1758269.279835906</v>
+        <v>1828059.292085913</v>
       </c>
       <c r="AE17" t="n">
-        <v>2405741.598037542</v>
+        <v>2501231.371716043</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.314770619367362e-06</v>
+        <v>2.527913520978629e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.07083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2176140.996400378</v>
+        <v>2262517.360099741</v>
       </c>
     </row>
     <row r="18">
@@ -21830,28 +21830,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1749.602919636972</v>
+        <v>1819.392931886979</v>
       </c>
       <c r="AB18" t="n">
-        <v>2393.883901680532</v>
+        <v>2489.373675359033</v>
       </c>
       <c r="AC18" t="n">
-        <v>2165.4149819413</v>
+        <v>2251.791345640663</v>
       </c>
       <c r="AD18" t="n">
-        <v>1749602.919636972</v>
+        <v>1819392.931886979</v>
       </c>
       <c r="AE18" t="n">
-        <v>2393883.901680532</v>
+        <v>2489373.675359034</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.315837061352944e-06</v>
+        <v>2.529963972270268e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.06041666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2165414.9819413</v>
+        <v>2251791.345640663</v>
       </c>
     </row>
     <row r="19">
@@ -21936,28 +21936,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1755.906180241638</v>
+        <v>1825.696192491645</v>
       </c>
       <c r="AB19" t="n">
-        <v>2402.508300920068</v>
+        <v>2497.998074598569</v>
       </c>
       <c r="AC19" t="n">
-        <v>2173.216280621834</v>
+        <v>2259.592644321197</v>
       </c>
       <c r="AD19" t="n">
-        <v>1755906.180241638</v>
+        <v>1825696.192491645</v>
       </c>
       <c r="AE19" t="n">
-        <v>2402508.300920067</v>
+        <v>2497998.074598568</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.315532363642778e-06</v>
+        <v>2.529378129044086e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.0625</v>
       </c>
       <c r="AH19" t="n">
-        <v>2173216.280621834</v>
+        <v>2259592.644321198</v>
       </c>
     </row>
   </sheetData>
@@ -22233,28 +22233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11729.5857709364</v>
+        <v>11935.07897255111</v>
       </c>
       <c r="AB2" t="n">
-        <v>16048.93672459891</v>
+        <v>16330.10158876841</v>
       </c>
       <c r="AC2" t="n">
-        <v>14517.24872842675</v>
+        <v>14771.57961257726</v>
       </c>
       <c r="AD2" t="n">
-        <v>11729585.7709364</v>
+        <v>11935078.97255111</v>
       </c>
       <c r="AE2" t="n">
-        <v>16048936.72459891</v>
+        <v>16330101.58876841</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.692385694302956e-07</v>
+        <v>8.741558647810359e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.64479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>14517248.72842675</v>
+        <v>14771579.61257726</v>
       </c>
     </row>
     <row r="3">
@@ -22339,28 +22339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4175.558494624758</v>
+        <v>4296.316367309311</v>
       </c>
       <c r="AB3" t="n">
-        <v>5713.183344985629</v>
+        <v>5878.409593853991</v>
       </c>
       <c r="AC3" t="n">
-        <v>5167.92514504317</v>
+        <v>5317.382432616027</v>
       </c>
       <c r="AD3" t="n">
-        <v>4175558.494624759</v>
+        <v>4296316.367309311</v>
       </c>
       <c r="AE3" t="n">
-        <v>5713183.344985629</v>
+        <v>5878409.593853991</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.528936705408069e-07</v>
+        <v>1.588876219282359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.96041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5167925.14504317</v>
+        <v>5317382.432616027</v>
       </c>
     </row>
     <row r="4">
@@ -22445,28 +22445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3254.930002383046</v>
+        <v>3351.50225369741</v>
       </c>
       <c r="AB4" t="n">
-        <v>4453.53882663785</v>
+        <v>4585.673241353209</v>
       </c>
       <c r="AC4" t="n">
-        <v>4028.499331604365</v>
+        <v>4148.023023231101</v>
       </c>
       <c r="AD4" t="n">
-        <v>3254930.002383046</v>
+        <v>3351502.25369741</v>
       </c>
       <c r="AE4" t="n">
-        <v>4453538.826637849</v>
+        <v>4585673.241353209</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.934740755471881e-07</v>
+        <v>1.85076685128821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.41875</v>
       </c>
       <c r="AH4" t="n">
-        <v>4028499.331604365</v>
+        <v>4148023.023231101</v>
       </c>
     </row>
     <row r="5">
@@ -22551,28 +22551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2882.976425406293</v>
+        <v>2967.541162135859</v>
       </c>
       <c r="AB5" t="n">
-        <v>3944.61553318453</v>
+        <v>4060.320736710812</v>
       </c>
       <c r="AC5" t="n">
-        <v>3568.146962999922</v>
+        <v>3672.809424294924</v>
       </c>
       <c r="AD5" t="n">
-        <v>2882976.425406293</v>
+        <v>2967541.162135859</v>
       </c>
       <c r="AE5" t="n">
-        <v>3944615.53318453</v>
+        <v>4060320.736710811</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.069646303364453e-06</v>
+        <v>1.992669934320669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.321875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3568146.962999922</v>
+        <v>3672809.424294924</v>
       </c>
     </row>
     <row r="6">
@@ -22657,28 +22657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2681.634819062271</v>
+        <v>2766.284807137858</v>
       </c>
       <c r="AB6" t="n">
-        <v>3669.131064819851</v>
+        <v>3784.952912998782</v>
       </c>
       <c r="AC6" t="n">
-        <v>3318.954345651098</v>
+        <v>3423.722319196813</v>
       </c>
       <c r="AD6" t="n">
-        <v>2681634.819062271</v>
+        <v>2766284.807137858</v>
       </c>
       <c r="AE6" t="n">
-        <v>3669131.064819851</v>
+        <v>3784952.912998782</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.115673151447087e-06</v>
+        <v>2.078414461326769e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.72916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3318954.345651098</v>
+        <v>3423722.319196813</v>
       </c>
     </row>
     <row r="7">
@@ -22763,28 +22763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2557.135497802657</v>
+        <v>2641.614893677651</v>
       </c>
       <c r="AB7" t="n">
-        <v>3498.785600950027</v>
+        <v>3614.374037354111</v>
       </c>
       <c r="AC7" t="n">
-        <v>3164.866413771656</v>
+        <v>3269.423252034719</v>
       </c>
       <c r="AD7" t="n">
-        <v>2557135.497802657</v>
+        <v>2641614.893677651</v>
       </c>
       <c r="AE7" t="n">
-        <v>3498785.600950027</v>
+        <v>3614374.037354111</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.148024290674496e-06</v>
+        <v>2.138682179989203e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.34375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3164866.413771656</v>
+        <v>3269423.252034719</v>
       </c>
     </row>
     <row r="8">
@@ -22869,28 +22869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2470.575099427686</v>
+        <v>2543.132321572455</v>
       </c>
       <c r="AB8" t="n">
-        <v>3380.349845118125</v>
+        <v>3479.625837455328</v>
       </c>
       <c r="AC8" t="n">
-        <v>3057.734000250728</v>
+        <v>3147.535231213996</v>
       </c>
       <c r="AD8" t="n">
-        <v>2470575.099427687</v>
+        <v>2543132.321572455</v>
       </c>
       <c r="AE8" t="n">
-        <v>3380349.845118125</v>
+        <v>3479625.837455328</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.170964189399387e-06</v>
+        <v>2.181417471404384e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.08125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3057734.000250728</v>
+        <v>3147535.231213996</v>
       </c>
     </row>
     <row r="9">
@@ -22975,28 +22975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2395.432071685483</v>
+        <v>2479.996718906498</v>
       </c>
       <c r="AB9" t="n">
-        <v>3277.535839484818</v>
+        <v>3393.240920541552</v>
       </c>
       <c r="AC9" t="n">
-        <v>2964.732419014706</v>
+        <v>3069.394769528481</v>
       </c>
       <c r="AD9" t="n">
-        <v>2395432.071685483</v>
+        <v>2479996.718906498</v>
       </c>
       <c r="AE9" t="n">
-        <v>3277535.839484818</v>
+        <v>3393240.920541552</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.187875012177351e-06</v>
+        <v>2.212921051614293e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.89479166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2964732.419014705</v>
+        <v>3069394.769528481</v>
       </c>
     </row>
     <row r="10">
@@ -23081,28 +23081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2339.150834446792</v>
+        <v>2423.715481667808</v>
       </c>
       <c r="AB10" t="n">
-        <v>3200.529367741889</v>
+        <v>3316.234448798622</v>
       </c>
       <c r="AC10" t="n">
-        <v>2895.075336855662</v>
+        <v>2999.737687369438</v>
       </c>
       <c r="AD10" t="n">
-        <v>2339150.834446792</v>
+        <v>2423715.481667808</v>
       </c>
       <c r="AE10" t="n">
-        <v>3200529.367741888</v>
+        <v>3316234.448798622</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.202580075462538e-06</v>
+        <v>2.240315469188127e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.7375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2895075.336855662</v>
+        <v>2999737.687369438</v>
       </c>
     </row>
     <row r="11">
@@ -23187,28 +23187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2295.222562141074</v>
+        <v>2379.787209362089</v>
       </c>
       <c r="AB11" t="n">
-        <v>3140.424767594602</v>
+        <v>3256.129848651335</v>
       </c>
       <c r="AC11" t="n">
-        <v>2840.707035389099</v>
+        <v>2945.369385902873</v>
       </c>
       <c r="AD11" t="n">
-        <v>2295222.562141074</v>
+        <v>2379787.209362089</v>
       </c>
       <c r="AE11" t="n">
-        <v>3140424.767594601</v>
+        <v>3256129.848651335</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.214050024824983e-06</v>
+        <v>2.261683114895717e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.61666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2840707.035389098</v>
+        <v>2945369.385902873</v>
       </c>
     </row>
     <row r="12">
@@ -23293,28 +23293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2259.382263418047</v>
+        <v>2332.024736908836</v>
       </c>
       <c r="AB12" t="n">
-        <v>3091.386489719367</v>
+        <v>3190.77912670922</v>
       </c>
       <c r="AC12" t="n">
-        <v>2796.348901928623</v>
+        <v>2886.255645142603</v>
       </c>
       <c r="AD12" t="n">
-        <v>2259382.263418047</v>
+        <v>2332024.736908836</v>
       </c>
       <c r="AE12" t="n">
-        <v>3091386.489719367</v>
+        <v>3190779.12670922</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.222873062796095e-06</v>
+        <v>2.278119765440017e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2796348.901928623</v>
+        <v>2886255.645142603</v>
       </c>
     </row>
     <row r="13">
@@ -23399,28 +23399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2226.242381889555</v>
+        <v>2298.714263179751</v>
       </c>
       <c r="AB13" t="n">
-        <v>3046.043041783693</v>
+        <v>3145.202266998699</v>
       </c>
       <c r="AC13" t="n">
-        <v>2755.332969024002</v>
+        <v>2845.028576955331</v>
       </c>
       <c r="AD13" t="n">
-        <v>2226242.381889555</v>
+        <v>2298714.263179752</v>
       </c>
       <c r="AE13" t="n">
-        <v>3046043.041783693</v>
+        <v>3145202.266998699</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.230666746337244e-06</v>
+        <v>2.292638806754149e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.446875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2755332.969024002</v>
+        <v>2845028.576955331</v>
       </c>
     </row>
     <row r="14">
@@ -23505,28 +23505,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2200.010520806971</v>
+        <v>2272.482402097168</v>
       </c>
       <c r="AB14" t="n">
-        <v>3010.151452182465</v>
+        <v>3109.310677397471</v>
       </c>
       <c r="AC14" t="n">
-        <v>2722.866822360155</v>
+        <v>2812.562430291483</v>
       </c>
       <c r="AD14" t="n">
-        <v>2200010.520806971</v>
+        <v>2272482.402097168</v>
       </c>
       <c r="AE14" t="n">
-        <v>3010151.452182465</v>
+        <v>3109310.677397471</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.236401721018466e-06</v>
+        <v>2.303322629607944e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.38958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2722866.822360155</v>
+        <v>2812562.430291483</v>
       </c>
     </row>
     <row r="15">
@@ -23611,28 +23611,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2168.887615851974</v>
+        <v>2241.359497142173</v>
       </c>
       <c r="AB15" t="n">
-        <v>2967.567720577203</v>
+        <v>3066.726945792383</v>
       </c>
       <c r="AC15" t="n">
-        <v>2684.347222332769</v>
+        <v>2774.042830264144</v>
       </c>
       <c r="AD15" t="n">
-        <v>2168887.615851974</v>
+        <v>2241359.497142173</v>
       </c>
       <c r="AE15" t="n">
-        <v>2967567.720577203</v>
+        <v>3066726.945792383</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.2430189994968e-06</v>
+        <v>2.31565011751617e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.32291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2684347.22233277</v>
+        <v>2774042.830264144</v>
       </c>
     </row>
     <row r="16">
@@ -23717,28 +23717,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2147.522064279601</v>
+        <v>2219.9939455698</v>
       </c>
       <c r="AB16" t="n">
-        <v>2938.334430334271</v>
+        <v>3037.493655549449</v>
       </c>
       <c r="AC16" t="n">
-        <v>2657.903916281442</v>
+        <v>2747.599524212816</v>
       </c>
       <c r="AD16" t="n">
-        <v>2147522.064279601</v>
+        <v>2219993.9455698</v>
       </c>
       <c r="AE16" t="n">
-        <v>2938334.430334271</v>
+        <v>3037493.655549449</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.247136417216652e-06</v>
+        <v>2.323320554436843e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.28229166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2657903.916281442</v>
+        <v>2747599.524212816</v>
       </c>
     </row>
     <row r="17">
@@ -23823,28 +23823,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2126.501782143057</v>
+        <v>2198.973663433257</v>
       </c>
       <c r="AB17" t="n">
-        <v>2909.573552965654</v>
+        <v>3008.73277818083</v>
       </c>
       <c r="AC17" t="n">
-        <v>2631.88793668274</v>
+        <v>2721.583544614114</v>
       </c>
       <c r="AD17" t="n">
-        <v>2126501.782143057</v>
+        <v>2198973.663433257</v>
       </c>
       <c r="AE17" t="n">
-        <v>2909573.552965654</v>
+        <v>3008732.77818083</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.251253834936504e-06</v>
+        <v>2.330990991357516e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.24270833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2631887.936682741</v>
+        <v>2721583.544614114</v>
       </c>
     </row>
     <row r="18">
@@ -23929,28 +23929,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2101.471350663379</v>
+        <v>2173.943231953576</v>
       </c>
       <c r="AB18" t="n">
-        <v>2875.325812350456</v>
+        <v>2974.485037565457</v>
       </c>
       <c r="AC18" t="n">
-        <v>2600.908752364851</v>
+        <v>2690.604360296178</v>
       </c>
       <c r="AD18" t="n">
-        <v>2101471.350663379</v>
+        <v>2173943.231953576</v>
       </c>
       <c r="AE18" t="n">
-        <v>2875325.812350456</v>
+        <v>2974485.037565457</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.255077151390653e-06</v>
+        <v>2.338113539926713e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.20416666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2600908.752364852</v>
+        <v>2690604.360296178</v>
       </c>
     </row>
     <row r="19">
@@ -24035,28 +24035,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2081.834886857905</v>
+        <v>2154.306768148101</v>
       </c>
       <c r="AB19" t="n">
-        <v>2848.458336272162</v>
+        <v>2947.617561487164</v>
       </c>
       <c r="AC19" t="n">
-        <v>2576.605470494731</v>
+        <v>2666.301078426058</v>
       </c>
       <c r="AD19" t="n">
-        <v>2081834.886857904</v>
+        <v>2154306.768148101</v>
       </c>
       <c r="AE19" t="n">
-        <v>2848458.336272162</v>
+        <v>2947617.561487163</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.258606366579097e-06</v>
+        <v>2.344688200144433e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.17083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2576605.47049473</v>
+        <v>2666301.078426058</v>
       </c>
     </row>
     <row r="20">
@@ -24141,28 +24141,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2060.230880294009</v>
+        <v>2132.702761584205</v>
       </c>
       <c r="AB20" t="n">
-        <v>2818.898781389937</v>
+        <v>2918.058006604937</v>
       </c>
       <c r="AC20" t="n">
-        <v>2549.86703804337</v>
+        <v>2639.562645974696</v>
       </c>
       <c r="AD20" t="n">
-        <v>2060230.880294009</v>
+        <v>2132702.761584205</v>
       </c>
       <c r="AE20" t="n">
-        <v>2818898.781389937</v>
+        <v>2918058.006604937</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.262282632400394e-06</v>
+        <v>2.351536804537892e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2549867.03804337</v>
+        <v>2639562.645974696</v>
       </c>
     </row>
     <row r="21">
@@ -24247,28 +24247,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2041.367362706819</v>
+        <v>2113.839243997016</v>
       </c>
       <c r="AB21" t="n">
-        <v>2793.088884427483</v>
+        <v>2892.248109642483</v>
       </c>
       <c r="AC21" t="n">
-        <v>2526.520401422593</v>
+        <v>2616.216009353921</v>
       </c>
       <c r="AD21" t="n">
-        <v>2041367.362706819</v>
+        <v>2113839.243997016</v>
       </c>
       <c r="AE21" t="n">
-        <v>2793088.884427483</v>
+        <v>2892248.109642483</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.265076594424579e-06</v>
+        <v>2.35674174387692e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2526520.401422593</v>
+        <v>2616216.009353921</v>
       </c>
     </row>
     <row r="22">
@@ -24353,28 +24353,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2023.584630003204</v>
+        <v>2096.0565112934</v>
       </c>
       <c r="AB22" t="n">
-        <v>2768.757765023598</v>
+        <v>2867.916990238598</v>
       </c>
       <c r="AC22" t="n">
-        <v>2504.511409905675</v>
+        <v>2594.207017837002</v>
       </c>
       <c r="AD22" t="n">
-        <v>2023584.630003204</v>
+        <v>2096056.5112934</v>
       </c>
       <c r="AE22" t="n">
-        <v>2768757.765023598</v>
+        <v>2867916.990238598</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.26669415138595e-06</v>
+        <v>2.359755129810042e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.09375</v>
       </c>
       <c r="AH22" t="n">
-        <v>2504511.409905675</v>
+        <v>2594207.017837002</v>
       </c>
     </row>
     <row r="23">
@@ -24459,28 +24459,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2006.217271348485</v>
+        <v>2078.689152638681</v>
       </c>
       <c r="AB23" t="n">
-        <v>2744.994978718423</v>
+        <v>2844.154203933424</v>
       </c>
       <c r="AC23" t="n">
-        <v>2483.016510574185</v>
+        <v>2572.712118505513</v>
       </c>
       <c r="AD23" t="n">
-        <v>2006217.271348485</v>
+        <v>2078689.152638681</v>
       </c>
       <c r="AE23" t="n">
-        <v>2744994.978718423</v>
+        <v>2844154.203933423</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.269635164042987e-06</v>
+        <v>2.365234013324809e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.06458333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>2483016.510574185</v>
+        <v>2572712.118505513</v>
       </c>
     </row>
     <row r="24">
@@ -24565,28 +24565,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1988.83164734577</v>
+        <v>2061.303528635966</v>
       </c>
       <c r="AB24" t="n">
-        <v>2721.20720095831</v>
+        <v>2820.36642617331</v>
       </c>
       <c r="AC24" t="n">
-        <v>2461.499004937141</v>
+        <v>2551.194612868469</v>
       </c>
       <c r="AD24" t="n">
-        <v>1988831.64734577</v>
+        <v>2061303.528635966</v>
       </c>
       <c r="AE24" t="n">
-        <v>2721207.20095831</v>
+        <v>2820366.42617331</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.271105670371506e-06</v>
+        <v>2.367973455082192e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.05</v>
       </c>
       <c r="AH24" t="n">
-        <v>2461499.004937141</v>
+        <v>2551194.612868469</v>
       </c>
     </row>
     <row r="25">
@@ -24671,28 +24671,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1972.235679989311</v>
+        <v>2044.707561279508</v>
       </c>
       <c r="AB25" t="n">
-        <v>2698.499866258796</v>
+        <v>2797.659091473797</v>
       </c>
       <c r="AC25" t="n">
-        <v>2440.958826391406</v>
+        <v>2530.654434322732</v>
       </c>
       <c r="AD25" t="n">
-        <v>1972235.679989311</v>
+        <v>2044707.561279508</v>
       </c>
       <c r="AE25" t="n">
-        <v>2698499.866258796</v>
+        <v>2797659.091473797</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.273164379231432e-06</v>
+        <v>2.371808673542529e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.03020833333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>2440958.826391406</v>
+        <v>2530654.434322733</v>
       </c>
     </row>
     <row r="26">
@@ -24777,28 +24777,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1970.068830419149</v>
+        <v>2042.540711709345</v>
       </c>
       <c r="AB26" t="n">
-        <v>2695.535087082243</v>
+        <v>2794.694312297243</v>
       </c>
       <c r="AC26" t="n">
-        <v>2438.277001578369</v>
+        <v>2527.972609509696</v>
       </c>
       <c r="AD26" t="n">
-        <v>1970068.830419149</v>
+        <v>2042540.711709345</v>
       </c>
       <c r="AE26" t="n">
-        <v>2695535.087082243</v>
+        <v>2794694.312297244</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.273752581762839e-06</v>
+        <v>2.372904450245482e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.025</v>
       </c>
       <c r="AH26" t="n">
-        <v>2438277.001578369</v>
+        <v>2527972.609509696</v>
       </c>
     </row>
     <row r="27">
@@ -24883,28 +24883,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1977.132363815841</v>
+        <v>2049.604245106038</v>
       </c>
       <c r="AB27" t="n">
-        <v>2705.199725096699</v>
+        <v>2804.3589503117</v>
       </c>
       <c r="AC27" t="n">
-        <v>2447.01926010513</v>
+        <v>2536.714868036457</v>
       </c>
       <c r="AD27" t="n">
-        <v>1977132.363815841</v>
+        <v>2049604.245106038</v>
       </c>
       <c r="AE27" t="n">
-        <v>2705199.725096699</v>
+        <v>2804358.950311699</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.273458480497136e-06</v>
+        <v>2.372356561894005e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.028125</v>
       </c>
       <c r="AH27" t="n">
-        <v>2447019.26010513</v>
+        <v>2536714.868036457</v>
       </c>
     </row>
     <row r="28">
@@ -24989,28 +24989,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>1985.527810288655</v>
+        <v>2057.999691578852</v>
       </c>
       <c r="AB28" t="n">
-        <v>2716.686745341762</v>
+        <v>2815.845970556762</v>
       </c>
       <c r="AC28" t="n">
-        <v>2457.409975260138</v>
+        <v>2547.105583191464</v>
       </c>
       <c r="AD28" t="n">
-        <v>1985527.810288656</v>
+        <v>2057999.691578852</v>
       </c>
       <c r="AE28" t="n">
-        <v>2716686.745341762</v>
+        <v>2815845.970556762</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.273458480497136e-06</v>
+        <v>2.372356561894005e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.028125</v>
       </c>
       <c r="AH28" t="n">
-        <v>2457409.975260138</v>
+        <v>2547105.583191464</v>
       </c>
     </row>
   </sheetData>
@@ -25286,28 +25286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4442.790021731676</v>
+        <v>4564.944747911284</v>
       </c>
       <c r="AB2" t="n">
-        <v>6078.821309796253</v>
+        <v>6245.958795241379</v>
       </c>
       <c r="AC2" t="n">
-        <v>5498.667135668362</v>
+        <v>5649.853254081533</v>
       </c>
       <c r="AD2" t="n">
-        <v>4442790.021731676</v>
+        <v>4564944.747911284</v>
       </c>
       <c r="AE2" t="n">
-        <v>6078821.309796253</v>
+        <v>6245958.795241378</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.82386378339255e-07</v>
+        <v>1.568291425941181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.17916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5498667.135668362</v>
+        <v>5649853.254081533</v>
       </c>
     </row>
     <row r="3">
@@ -25392,28 +25392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2480.658694394395</v>
+        <v>2558.50216832671</v>
       </c>
       <c r="AB3" t="n">
-        <v>3394.14666460839</v>
+        <v>3500.655539854283</v>
       </c>
       <c r="AC3" t="n">
-        <v>3070.214070652799</v>
+        <v>3166.557888331366</v>
       </c>
       <c r="AD3" t="n">
-        <v>2480658.694394395</v>
+        <v>2558502.168326709</v>
       </c>
       <c r="AE3" t="n">
-        <v>3394146.66460839</v>
+        <v>3500655.539854283</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092763731763388e-06</v>
+        <v>2.190442009920694e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.165625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3070214.070652799</v>
+        <v>3166557.888331367</v>
       </c>
     </row>
     <row r="4">
@@ -25498,28 +25498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2086.74278283355</v>
+        <v>2164.586167257313</v>
       </c>
       <c r="AB4" t="n">
-        <v>2855.17353606713</v>
+        <v>2961.68228884347</v>
       </c>
       <c r="AC4" t="n">
-        <v>2582.679781046109</v>
+        <v>2679.023487943447</v>
       </c>
       <c r="AD4" t="n">
-        <v>2086742.78283355</v>
+        <v>2164586.167257313</v>
       </c>
       <c r="AE4" t="n">
-        <v>2855173.536067131</v>
+        <v>2961682.28884347</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.202215099859648e-06</v>
+        <v>2.409836987766878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.784375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2582679.781046109</v>
+        <v>2679023.487943448</v>
       </c>
     </row>
     <row r="5">
@@ -25604,28 +25604,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1917.322166906843</v>
+        <v>1984.045157350048</v>
       </c>
       <c r="AB5" t="n">
-        <v>2623.364775046146</v>
+        <v>2714.658114181128</v>
       </c>
       <c r="AC5" t="n">
-        <v>2372.994522831327</v>
+        <v>2455.574953810273</v>
       </c>
       <c r="AD5" t="n">
-        <v>1917322.166906843</v>
+        <v>1984045.157350048</v>
       </c>
       <c r="AE5" t="n">
-        <v>2623364.775046146</v>
+        <v>2714658.114181128</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258849819397829e-06</v>
+        <v>2.523361133280311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.16458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2372994.522831327</v>
+        <v>2455574.953810273</v>
       </c>
     </row>
     <row r="6">
@@ -25710,28 +25710,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1806.223072379722</v>
+        <v>1883.981115948914</v>
       </c>
       <c r="AB6" t="n">
-        <v>2471.354092568008</v>
+        <v>2577.74607822215</v>
       </c>
       <c r="AC6" t="n">
-        <v>2235.49152654057</v>
+        <v>2331.72961040597</v>
       </c>
       <c r="AD6" t="n">
-        <v>1806223.072379722</v>
+        <v>1883981.115948914</v>
       </c>
       <c r="AE6" t="n">
-        <v>2471354.092568008</v>
+        <v>2577746.07822215</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.292576113055398e-06</v>
+        <v>2.590965399709658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.81979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2235491.52654057</v>
+        <v>2331729.61040597</v>
       </c>
     </row>
     <row r="7">
@@ -25816,28 +25816,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1732.123783627138</v>
+        <v>1809.881827196329</v>
       </c>
       <c r="AB7" t="n">
-        <v>2369.96817666682</v>
+        <v>2476.360162320961</v>
       </c>
       <c r="AC7" t="n">
-        <v>2143.781740156965</v>
+        <v>2240.019824022365</v>
       </c>
       <c r="AD7" t="n">
-        <v>1732123.783627138</v>
+        <v>1809881.827196329</v>
       </c>
       <c r="AE7" t="n">
-        <v>2369968.176666819</v>
+        <v>2476360.162320961</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316279970390198e-06</v>
+        <v>2.638479719039718e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.58958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2143781.740156964</v>
+        <v>2240019.824022365</v>
       </c>
     </row>
     <row r="8">
@@ -25922,28 +25922,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1674.85437216327</v>
+        <v>1741.492021751903</v>
       </c>
       <c r="AB8" t="n">
-        <v>2291.609641353836</v>
+        <v>2382.786213366621</v>
       </c>
       <c r="AC8" t="n">
-        <v>2072.901633477357</v>
+        <v>2155.376441424364</v>
       </c>
       <c r="AD8" t="n">
-        <v>1674854.37216327</v>
+        <v>1741492.021751903</v>
       </c>
       <c r="AE8" t="n">
-        <v>2291609.641353836</v>
+        <v>2382786.213366621</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.333461289800658e-06</v>
+        <v>2.672919628352782e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.428125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2072901.633477357</v>
+        <v>2155376.441424364</v>
       </c>
     </row>
     <row r="9">
@@ -26028,28 +26028,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1626.778049080453</v>
+        <v>1693.415698669087</v>
       </c>
       <c r="AB9" t="n">
-        <v>2225.829495134244</v>
+        <v>2317.006067147028</v>
       </c>
       <c r="AC9" t="n">
-        <v>2013.399452089948</v>
+        <v>2095.874260036955</v>
       </c>
       <c r="AD9" t="n">
-        <v>1626778.049080453</v>
+        <v>1693415.698669087</v>
       </c>
       <c r="AE9" t="n">
-        <v>2225829.495134244</v>
+        <v>2317006.067147028</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345392761613477e-06</v>
+        <v>2.69683623204241e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2013399.452089948</v>
+        <v>2095874.260036955</v>
       </c>
     </row>
     <row r="10">
@@ -26134,28 +26134,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1580.667662150195</v>
+        <v>1647.305311738828</v>
       </c>
       <c r="AB10" t="n">
-        <v>2162.739229489562</v>
+        <v>2253.915801502346</v>
       </c>
       <c r="AC10" t="n">
-        <v>1956.33043285065</v>
+        <v>2038.805240797657</v>
       </c>
       <c r="AD10" t="n">
-        <v>1580667.662150195</v>
+        <v>1647305.311738828</v>
       </c>
       <c r="AE10" t="n">
-        <v>2162739.229489562</v>
+        <v>2253915.801502346</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.356051543099595e-06</v>
+        <v>2.718201731338477e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.22083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1956330.43285065</v>
+        <v>2038805.240797658</v>
       </c>
     </row>
     <row r="11">
@@ -26240,28 +26240,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1542.204623327957</v>
+        <v>1608.842272916591</v>
       </c>
       <c r="AB11" t="n">
-        <v>2110.112402903463</v>
+        <v>2201.288974916247</v>
       </c>
       <c r="AC11" t="n">
-        <v>1908.726236731714</v>
+        <v>1991.201044678721</v>
       </c>
       <c r="AD11" t="n">
-        <v>1542204.623327957</v>
+        <v>1608842.272916591</v>
       </c>
       <c r="AE11" t="n">
-        <v>2110112.402903463</v>
+        <v>2201288.974916247</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.363528598768962e-06</v>
+        <v>2.733189469650643e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.15416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1908726.236731714</v>
+        <v>1991201.044678721</v>
       </c>
     </row>
     <row r="12">
@@ -26346,28 +26346,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1531.958493015337</v>
+        <v>1598.596142603971</v>
       </c>
       <c r="AB12" t="n">
-        <v>2096.093195382369</v>
+        <v>2187.269767395154</v>
       </c>
       <c r="AC12" t="n">
-        <v>1896.045002700352</v>
+        <v>1978.519810647359</v>
       </c>
       <c r="AD12" t="n">
-        <v>1531958.493015337</v>
+        <v>1598596.142603971</v>
       </c>
       <c r="AE12" t="n">
-        <v>2096093.195382369</v>
+        <v>2187269.767395154</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.36559672054985e-06</v>
+        <v>2.737335014290179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1896045.002700352</v>
+        <v>1978519.810647359</v>
       </c>
     </row>
     <row r="13">
@@ -26452,28 +26452,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1540.884725147534</v>
+        <v>1607.522374736167</v>
       </c>
       <c r="AB13" t="n">
-        <v>2108.30645998321</v>
+        <v>2199.483031995995</v>
       </c>
       <c r="AC13" t="n">
-        <v>1907.092650469113</v>
+        <v>1989.56745841612</v>
       </c>
       <c r="AD13" t="n">
-        <v>1540884.725147534</v>
+        <v>1607522.374736167</v>
       </c>
       <c r="AE13" t="n">
-        <v>2108306.45998321</v>
+        <v>2199483.031995995</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.36559672054985e-06</v>
+        <v>2.737335014290179e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1907092.650469113</v>
+        <v>1989567.45841612</v>
       </c>
     </row>
   </sheetData>
@@ -26749,28 +26749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3016.445270754361</v>
+        <v>3112.167260470189</v>
       </c>
       <c r="AB2" t="n">
-        <v>4127.233495619653</v>
+        <v>4258.204544905002</v>
       </c>
       <c r="AC2" t="n">
-        <v>3733.336123406149</v>
+        <v>3851.807479566721</v>
       </c>
       <c r="AD2" t="n">
-        <v>3016445.270754361</v>
+        <v>3112167.260470189</v>
       </c>
       <c r="AE2" t="n">
-        <v>4127233.495619653</v>
+        <v>4258204.544905002</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.417593677538375e-07</v>
+        <v>1.970219493010143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3733336.123406149</v>
+        <v>3851807.479566721</v>
       </c>
     </row>
     <row r="3">
@@ -26855,28 +26855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1919.185117848718</v>
+        <v>1993.616609550802</v>
       </c>
       <c r="AB3" t="n">
-        <v>2625.913746712415</v>
+        <v>2727.754197344868</v>
       </c>
       <c r="AC3" t="n">
-        <v>2375.300224219272</v>
+        <v>2467.421165177334</v>
       </c>
       <c r="AD3" t="n">
-        <v>1919185.117848718</v>
+        <v>1993616.609550802</v>
       </c>
       <c r="AE3" t="n">
-        <v>2625913.746712415</v>
+        <v>2727754.197344868</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212703687000278e-06</v>
+        <v>2.537051953167029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2375300.224219272</v>
+        <v>2467421.165177334</v>
       </c>
     </row>
     <row r="4">
@@ -26961,28 +26961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1662.621136497232</v>
+        <v>1736.967287344743</v>
       </c>
       <c r="AB4" t="n">
-        <v>2274.871588623294</v>
+        <v>2376.595272133551</v>
       </c>
       <c r="AC4" t="n">
-        <v>2057.761037007414</v>
+        <v>2149.776354933539</v>
       </c>
       <c r="AD4" t="n">
-        <v>1662621.136497232</v>
+        <v>1736967.287344743</v>
       </c>
       <c r="AE4" t="n">
-        <v>2274871.588623295</v>
+        <v>2376595.272133551</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306167048501803e-06</v>
+        <v>2.732583150432157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2057761.037007414</v>
+        <v>2149776.354933538</v>
       </c>
     </row>
     <row r="5">
@@ -27067,28 +27067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1528.022653125278</v>
+        <v>1602.454055318811</v>
       </c>
       <c r="AB5" t="n">
-        <v>2090.70800560779</v>
+        <v>2192.548333770695</v>
       </c>
       <c r="AC5" t="n">
-        <v>1891.173767879697</v>
+        <v>1983.294598056533</v>
       </c>
       <c r="AD5" t="n">
-        <v>1528022.653125278</v>
+        <v>1602454.055318811</v>
       </c>
       <c r="AE5" t="n">
-        <v>2090708.00560779</v>
+        <v>2192548.333770695</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353727305152402e-06</v>
+        <v>2.832082181664588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.75208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1891173.767879697</v>
+        <v>1983294.598056533</v>
       </c>
     </row>
     <row r="6">
@@ -27173,28 +27173,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1444.356404982917</v>
+        <v>1508.142647678128</v>
       </c>
       <c r="AB6" t="n">
-        <v>1976.232153805047</v>
+        <v>2063.507305111057</v>
       </c>
       <c r="AC6" t="n">
-        <v>1787.623330705141</v>
+        <v>1866.56906406195</v>
       </c>
       <c r="AD6" t="n">
-        <v>1444356.404982917</v>
+        <v>1508142.647678128</v>
       </c>
       <c r="AE6" t="n">
-        <v>1976232.153805047</v>
+        <v>2063507.305111057</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.382893176826636e-06</v>
+        <v>2.893099009179947e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1787623.330705141</v>
+        <v>1866569.06406195</v>
       </c>
     </row>
     <row r="7">
@@ -27279,28 +27279,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1376.657244121634</v>
+        <v>1440.443486816845</v>
       </c>
       <c r="AB7" t="n">
-        <v>1883.603175238451</v>
+        <v>1970.878326544462</v>
       </c>
       <c r="AC7" t="n">
-        <v>1703.834731847353</v>
+        <v>1782.780465204162</v>
       </c>
       <c r="AD7" t="n">
-        <v>1376657.244121633</v>
+        <v>1440443.486816845</v>
       </c>
       <c r="AE7" t="n">
-        <v>1883603.175238451</v>
+        <v>1970878.326544462</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402944713602673e-06</v>
+        <v>2.935048078096757e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.30520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1703834.731847353</v>
+        <v>1782780.465204162</v>
       </c>
     </row>
     <row r="8">
@@ -27385,28 +27385,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1353.836092793453</v>
+        <v>1417.622335488666</v>
       </c>
       <c r="AB8" t="n">
-        <v>1852.378269193095</v>
+        <v>1939.653420499106</v>
       </c>
       <c r="AC8" t="n">
-        <v>1675.589887010535</v>
+        <v>1754.535620367344</v>
       </c>
       <c r="AD8" t="n">
-        <v>1353836.092793453</v>
+        <v>1417622.335488666</v>
       </c>
       <c r="AE8" t="n">
-        <v>1852378.269193095</v>
+        <v>1939653.420499106</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.40907617526146e-06</v>
+        <v>2.947875479335781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>1675589.887010535</v>
+        <v>1754535.620367344</v>
       </c>
     </row>
     <row r="9">
@@ -27491,28 +27491,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1363.215999268503</v>
+        <v>1427.002241963715</v>
       </c>
       <c r="AB9" t="n">
-        <v>1865.212271044526</v>
+        <v>1952.487422350536</v>
       </c>
       <c r="AC9" t="n">
-        <v>1687.1990297379</v>
+        <v>1766.144763094709</v>
       </c>
       <c r="AD9" t="n">
-        <v>1363215.999268503</v>
+        <v>1427002.241963715</v>
       </c>
       <c r="AE9" t="n">
-        <v>1865212.271044526</v>
+        <v>1952487.422350537</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.40907617526146e-06</v>
+        <v>2.947875479335781e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>1687199.0297379</v>
+        <v>1766144.763094709</v>
       </c>
     </row>
   </sheetData>
@@ -51729,28 +51729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2228.549358478426</v>
+        <v>2320.852484449901</v>
       </c>
       <c r="AB2" t="n">
-        <v>3049.199548929212</v>
+        <v>3175.492758009912</v>
       </c>
       <c r="AC2" t="n">
-        <v>2758.188223557738</v>
+        <v>2872.428186017403</v>
       </c>
       <c r="AD2" t="n">
-        <v>2228549.358478426</v>
+        <v>2320852.484449901</v>
       </c>
       <c r="AE2" t="n">
-        <v>3049199.548929212</v>
+        <v>3175492.758009912</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074147320549005e-06</v>
+        <v>2.335041350451701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2758188.223557738</v>
+        <v>2872428.186017403</v>
       </c>
     </row>
     <row r="3">
@@ -51835,28 +51835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1536.261604936542</v>
+        <v>1608.1193013568</v>
       </c>
       <c r="AB3" t="n">
-        <v>2101.980902952861</v>
+        <v>2200.299773332888</v>
       </c>
       <c r="AC3" t="n">
-        <v>1901.370795723766</v>
+        <v>1990.306251106123</v>
       </c>
       <c r="AD3" t="n">
-        <v>1536261.604936542</v>
+        <v>1608119.3013568</v>
       </c>
       <c r="AE3" t="n">
-        <v>2101980.902952862</v>
+        <v>2200299.773332887</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.310884864385292e-06</v>
+        <v>2.849674626061946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.621875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1901370.795723766</v>
+        <v>1990306.251106123</v>
       </c>
     </row>
     <row r="4">
@@ -51941,28 +51941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1341.981945909618</v>
+        <v>1413.754301475305</v>
       </c>
       <c r="AB4" t="n">
-        <v>1836.158902458581</v>
+        <v>1934.361005716409</v>
       </c>
       <c r="AC4" t="n">
-        <v>1660.918473873139</v>
+        <v>1749.748306223557</v>
       </c>
       <c r="AD4" t="n">
-        <v>1341981.945909618</v>
+        <v>1413754.301475305</v>
       </c>
       <c r="AE4" t="n">
-        <v>1836158.902458581</v>
+        <v>1934361.005716409</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.392140183558644e-06</v>
+        <v>3.026311970478497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.82708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1660918.473873138</v>
+        <v>1749748.306223557</v>
       </c>
     </row>
     <row r="5">
@@ -52047,28 +52047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1238.370499385594</v>
+        <v>1299.877559256937</v>
       </c>
       <c r="AB5" t="n">
-        <v>1694.393150309995</v>
+        <v>1778.54982312594</v>
       </c>
       <c r="AC5" t="n">
-        <v>1532.682646140131</v>
+        <v>1608.807524217154</v>
       </c>
       <c r="AD5" t="n">
-        <v>1238370.499385594</v>
+        <v>1299877.559256937</v>
       </c>
       <c r="AE5" t="n">
-        <v>1694393.150309995</v>
+        <v>1778549.82312594</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432424993697332e-06</v>
+        <v>3.113885337436069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.465625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1532682.646140131</v>
+        <v>1608807.524217154</v>
       </c>
     </row>
     <row r="6">
@@ -52153,28 +52153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1220.483037495159</v>
+        <v>1281.990097366503</v>
       </c>
       <c r="AB6" t="n">
-        <v>1669.918735812379</v>
+        <v>1754.075408628323</v>
       </c>
       <c r="AC6" t="n">
-        <v>1510.544035412111</v>
+        <v>1586.668913489133</v>
       </c>
       <c r="AD6" t="n">
-        <v>1220483.037495159</v>
+        <v>1281990.097366503</v>
       </c>
       <c r="AE6" t="n">
-        <v>1669918.735812379</v>
+        <v>1754075.408628323</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.440996229897053e-06</v>
+        <v>3.132517968703638e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.39270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1510544.035412111</v>
+        <v>1586668.913489133</v>
       </c>
     </row>
   </sheetData>
@@ -52450,28 +52450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1138.364938086248</v>
+        <v>1204.866328127512</v>
       </c>
       <c r="AB2" t="n">
-        <v>1557.561129406245</v>
+        <v>1648.551265094971</v>
       </c>
       <c r="AC2" t="n">
-        <v>1408.909681266487</v>
+        <v>1491.215846110538</v>
       </c>
       <c r="AD2" t="n">
-        <v>1138364.938086248</v>
+        <v>1204866.328127512</v>
       </c>
       <c r="AE2" t="n">
-        <v>1557561.129406245</v>
+        <v>1648551.265094971</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.36410943896101e-06</v>
+        <v>3.244571081765084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.04895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1408909.681266487</v>
+        <v>1491215.846110538</v>
       </c>
     </row>
     <row r="3">
@@ -52556,28 +52556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>964.3828072789107</v>
+        <v>1021.457160833705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1319.511102485748</v>
+        <v>1397.602750962189</v>
       </c>
       <c r="AC3" t="n">
-        <v>1193.578814809971</v>
+        <v>1264.217505958138</v>
       </c>
       <c r="AD3" t="n">
-        <v>964382.8072789108</v>
+        <v>1021457.160833705</v>
       </c>
       <c r="AE3" t="n">
-        <v>1319511.102485748</v>
+        <v>1397602.750962189</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470088267776972e-06</v>
+        <v>3.496644583666446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1193578.814809971</v>
+        <v>1264217.505958138</v>
       </c>
     </row>
   </sheetData>
@@ -52853,28 +52853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6349.975670276218</v>
+        <v>6499.692661336644</v>
       </c>
       <c r="AB2" t="n">
-        <v>8688.31685322762</v>
+        <v>8893.16624544399</v>
       </c>
       <c r="AC2" t="n">
-        <v>7859.116086884538</v>
+        <v>8044.414940615698</v>
       </c>
       <c r="AD2" t="n">
-        <v>6349975.670276218</v>
+        <v>6499692.661336644</v>
       </c>
       <c r="AE2" t="n">
-        <v>8688316.853227619</v>
+        <v>8893166.24544399</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.513305877481105e-07</v>
+        <v>1.263957936312942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7859116.086884538</v>
+        <v>8044414.940615698</v>
       </c>
     </row>
     <row r="3">
@@ -52959,28 +52959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3067.461799241394</v>
+        <v>3159.562598304602</v>
       </c>
       <c r="AB3" t="n">
-        <v>4197.036560586006</v>
+        <v>4323.052937064784</v>
       </c>
       <c r="AC3" t="n">
-        <v>3796.477281821329</v>
+        <v>3910.466832194062</v>
       </c>
       <c r="AD3" t="n">
-        <v>3067461.799241394</v>
+        <v>3159562.598304602</v>
       </c>
       <c r="AE3" t="n">
-        <v>4197036.560586006</v>
+        <v>4323052.937064784</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.930752689171522e-07</v>
+        <v>1.927140212842837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.13958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3796477.281821329</v>
+        <v>3910466.832194062</v>
       </c>
     </row>
     <row r="4">
@@ -53065,28 +53065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2511.525124347574</v>
+        <v>2592.102667109628</v>
       </c>
       <c r="AB4" t="n">
-        <v>3436.379475801114</v>
+        <v>3546.629224638463</v>
       </c>
       <c r="AC4" t="n">
-        <v>3108.416241619412</v>
+        <v>3208.143909164214</v>
       </c>
       <c r="AD4" t="n">
-        <v>2511525.124347574</v>
+        <v>2592102.667109628</v>
       </c>
       <c r="AE4" t="n">
-        <v>3436379.475801114</v>
+        <v>3546629.224638463</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.116017187086474e-06</v>
+        <v>2.165718618492268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.36145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3108416.241619412</v>
+        <v>3208143.909164214</v>
       </c>
     </row>
     <row r="5">
@@ -53171,28 +53171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2274.59978993063</v>
+        <v>2355.262584038705</v>
       </c>
       <c r="AB5" t="n">
-        <v>3112.207780843774</v>
+        <v>3222.574174333772</v>
       </c>
       <c r="AC5" t="n">
-        <v>2815.183038250981</v>
+        <v>2915.016218046496</v>
       </c>
       <c r="AD5" t="n">
-        <v>2274599.78993063</v>
+        <v>2355262.584038706</v>
       </c>
       <c r="AE5" t="n">
-        <v>3112207.780843774</v>
+        <v>3222574.174333772</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.179873127061779e-06</v>
+        <v>2.289636063228831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2815183.038250981</v>
+        <v>2915016.218046496</v>
       </c>
     </row>
     <row r="6">
@@ -53277,28 +53277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2144.299989078997</v>
+        <v>2213.439616394473</v>
       </c>
       <c r="AB6" t="n">
-        <v>2933.925844896881</v>
+        <v>3028.525733215171</v>
       </c>
       <c r="AC6" t="n">
-        <v>2653.916080050708</v>
+        <v>2739.487487799563</v>
       </c>
       <c r="AD6" t="n">
-        <v>2144299.989078998</v>
+        <v>2213439.616394473</v>
       </c>
       <c r="AE6" t="n">
-        <v>2933925.844896881</v>
+        <v>3028525.733215171</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.219417648926004e-06</v>
+        <v>2.366375300089787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.14375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2653916.080050708</v>
+        <v>2739487.487799563</v>
       </c>
     </row>
     <row r="7">
@@ -53383,28 +53383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2044.987647801431</v>
+        <v>2125.565101054935</v>
       </c>
       <c r="AB7" t="n">
-        <v>2798.042318209637</v>
+        <v>2908.291944577431</v>
       </c>
       <c r="AC7" t="n">
-        <v>2531.001086436766</v>
+        <v>2630.728643200341</v>
       </c>
       <c r="AD7" t="n">
-        <v>2044987.647801431</v>
+        <v>2125565.101054934</v>
       </c>
       <c r="AE7" t="n">
-        <v>2798042.318209637</v>
+        <v>2908291.944577431</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246190982795168e-06</v>
+        <v>2.41833104800343e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.86145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2531001.086436766</v>
+        <v>2630728.643200341</v>
       </c>
     </row>
     <row r="8">
@@ -53489,28 +53489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1983.14045282929</v>
+        <v>2063.717906082793</v>
       </c>
       <c r="AB8" t="n">
-        <v>2713.42025754308</v>
+        <v>2823.669883910874</v>
       </c>
       <c r="AC8" t="n">
-        <v>2454.455236472418</v>
+        <v>2554.182793235992</v>
       </c>
       <c r="AD8" t="n">
-        <v>1983140.45282929</v>
+        <v>2063717.906082794</v>
       </c>
       <c r="AE8" t="n">
-        <v>2713420.25754308</v>
+        <v>2823669.883910874</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.264193741776158e-06</v>
+        <v>2.45326680953157e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.678125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2454455.236472418</v>
+        <v>2554182.793235993</v>
       </c>
     </row>
     <row r="9">
@@ -53595,28 +53595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1929.400178839936</v>
+        <v>1998.62505750143</v>
       </c>
       <c r="AB9" t="n">
-        <v>2639.890443817285</v>
+        <v>2734.606976788046</v>
       </c>
       <c r="AC9" t="n">
-        <v>2387.94300496887</v>
+        <v>2473.619924968392</v>
       </c>
       <c r="AD9" t="n">
-        <v>1929400.178839936</v>
+        <v>1998625.05750143</v>
       </c>
       <c r="AE9" t="n">
-        <v>2639890.443817285</v>
+        <v>2734606.976788046</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.279272975794423e-06</v>
+        <v>2.482529242264541e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.528125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2387943.00496887</v>
+        <v>2473619.924968392</v>
       </c>
     </row>
     <row r="10">
@@ -53701,28 +53701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1883.947791304449</v>
+        <v>1953.002077765349</v>
       </c>
       <c r="AB10" t="n">
-        <v>2577.700481973413</v>
+        <v>2672.183603169328</v>
       </c>
       <c r="AC10" t="n">
-        <v>2331.688365799218</v>
+        <v>2417.154150516089</v>
       </c>
       <c r="AD10" t="n">
-        <v>1883947.791304449</v>
+        <v>1953002.077765349</v>
       </c>
       <c r="AE10" t="n">
-        <v>2577700.481973413</v>
+        <v>2672183.603169328</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.291274815115082e-06</v>
+        <v>2.505819749949967e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.4125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2331688.365799218</v>
+        <v>2417154.150516089</v>
       </c>
     </row>
     <row r="11">
@@ -53807,28 +53807,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1846.539129401504</v>
+        <v>1915.593415862405</v>
       </c>
       <c r="AB11" t="n">
-        <v>2526.516300404118</v>
+        <v>2620.999421600033</v>
       </c>
       <c r="AC11" t="n">
-        <v>2285.389130681447</v>
+        <v>2370.854915398317</v>
       </c>
       <c r="AD11" t="n">
-        <v>1846539.129401504</v>
+        <v>1915593.415862405</v>
       </c>
       <c r="AE11" t="n">
-        <v>2526516.300404118</v>
+        <v>2620999.421600033</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.300045390003257e-06</v>
+        <v>2.522839736335471e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.328125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2285389.130681447</v>
+        <v>2370854.915398317</v>
       </c>
     </row>
     <row r="12">
@@ -53913,28 +53913,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1812.582416483186</v>
+        <v>1881.636702944087</v>
       </c>
       <c r="AB12" t="n">
-        <v>2480.05522772483</v>
+        <v>2574.538348920745</v>
       </c>
       <c r="AC12" t="n">
-        <v>2243.362237570145</v>
+        <v>2328.828022287015</v>
       </c>
       <c r="AD12" t="n">
-        <v>1812582.416483186</v>
+        <v>1881636.702944087</v>
       </c>
       <c r="AE12" t="n">
-        <v>2480055.22772483</v>
+        <v>2574538.348920745</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.306969528072868e-06</v>
+        <v>2.536276567692448e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.26354166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2243362.237570145</v>
+        <v>2328828.022287015</v>
       </c>
     </row>
     <row r="13">
@@ -54019,28 +54019,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1778.654958437342</v>
+        <v>1847.709244898243</v>
       </c>
       <c r="AB13" t="n">
-        <v>2433.634182852694</v>
+        <v>2528.117304048609</v>
       </c>
       <c r="AC13" t="n">
-        <v>2201.37155206826</v>
+        <v>2286.83733678513</v>
       </c>
       <c r="AD13" t="n">
-        <v>1778654.958437342</v>
+        <v>1847709.244898243</v>
       </c>
       <c r="AE13" t="n">
-        <v>2433634.182852694</v>
+        <v>2528117.304048609</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.31404753587736e-06</v>
+        <v>2.550011995301802e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.196875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2201371.55206826</v>
+        <v>2286837.33678513</v>
       </c>
     </row>
     <row r="14">
@@ -54125,28 +54125,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1746.216889689372</v>
+        <v>1815.271176150272</v>
       </c>
       <c r="AB14" t="n">
-        <v>2389.250986125127</v>
+        <v>2483.734107321042</v>
       </c>
       <c r="AC14" t="n">
-        <v>2161.224225344164</v>
+        <v>2246.690010061035</v>
       </c>
       <c r="AD14" t="n">
-        <v>1746216.889689372</v>
+        <v>1815271.176150272</v>
       </c>
       <c r="AE14" t="n">
-        <v>2389250.986125127</v>
+        <v>2483734.107321042</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.32004845553769e-06</v>
+        <v>2.561657249144515e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.14166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2161224.225344164</v>
+        <v>2246690.010061034</v>
       </c>
     </row>
     <row r="15">
@@ -54231,28 +54231,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1719.63143540438</v>
+        <v>1788.685721865281</v>
       </c>
       <c r="AB15" t="n">
-        <v>2352.875594704935</v>
+        <v>2447.358715900849</v>
       </c>
       <c r="AC15" t="n">
-        <v>2128.320450227932</v>
+        <v>2213.786234944803</v>
       </c>
       <c r="AD15" t="n">
-        <v>1719631.43540438</v>
+        <v>1788685.721865281</v>
       </c>
       <c r="AE15" t="n">
-        <v>2352875.594704935</v>
+        <v>2447358.71590085</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.324202938379457e-06</v>
+        <v>2.569719347958701e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.103125</v>
       </c>
       <c r="AH15" t="n">
-        <v>2128320.450227932</v>
+        <v>2213786.234944803</v>
       </c>
     </row>
     <row r="16">
@@ -54337,28 +54337,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1696.753268714219</v>
+        <v>1765.807555175119</v>
       </c>
       <c r="AB16" t="n">
-        <v>2321.572677725976</v>
+        <v>2416.055798921891</v>
       </c>
       <c r="AC16" t="n">
-        <v>2100.005039711525</v>
+        <v>2185.470824428396</v>
       </c>
       <c r="AD16" t="n">
-        <v>1696753.268714219</v>
+        <v>1765807.555175119</v>
       </c>
       <c r="AE16" t="n">
-        <v>2321572.677725976</v>
+        <v>2416055.798921891</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.327434202811942e-06</v>
+        <v>2.575989869258624e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.07395833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2100005.039711525</v>
+        <v>2185470.824428396</v>
       </c>
     </row>
     <row r="17">
@@ -54443,28 +54443,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1699.281346023509</v>
+        <v>1768.33563248441</v>
       </c>
       <c r="AB17" t="n">
-        <v>2325.031704631446</v>
+        <v>2419.514825827361</v>
       </c>
       <c r="AC17" t="n">
-        <v>2103.133941943913</v>
+        <v>2188.599726660783</v>
       </c>
       <c r="AD17" t="n">
-        <v>1699281.346023509</v>
+        <v>1768335.63248441</v>
       </c>
       <c r="AE17" t="n">
-        <v>2325031.704631446</v>
+        <v>2419514.825827361</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.327895812016582e-06</v>
+        <v>2.576885658015755e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.06979166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2103133.941943913</v>
+        <v>2188599.726660783</v>
       </c>
     </row>
     <row r="18">
@@ -54549,28 +54549,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1707.615172723501</v>
+        <v>1776.669459184401</v>
       </c>
       <c r="AB18" t="n">
-        <v>2336.43441398486</v>
+        <v>2430.917535180775</v>
       </c>
       <c r="AC18" t="n">
-        <v>2113.44839272044</v>
+        <v>2198.91417743731</v>
       </c>
       <c r="AD18" t="n">
-        <v>1707615.172723501</v>
+        <v>1776669.459184401</v>
       </c>
       <c r="AE18" t="n">
-        <v>2336434.41398486</v>
+        <v>2430917.535180775</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.327895812016582e-06</v>
+        <v>2.576885658015755e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.06979166666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2113448.39272044</v>
+        <v>2198914.17743731</v>
       </c>
     </row>
   </sheetData>
@@ -54846,28 +54846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10316.77990660299</v>
+        <v>10508.48385701441</v>
       </c>
       <c r="AB2" t="n">
-        <v>14115.87341242202</v>
+        <v>14378.17121475634</v>
       </c>
       <c r="AC2" t="n">
-        <v>12768.6742656927</v>
+        <v>13005.9387339095</v>
       </c>
       <c r="AD2" t="n">
-        <v>10316779.90660299</v>
+        <v>10508483.85701441</v>
       </c>
       <c r="AE2" t="n">
-        <v>14115873.41242202</v>
+        <v>14378171.21475635</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.029446377587888e-07</v>
+        <v>9.437214100306746e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.71145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12768674.2656927</v>
+        <v>13005938.7339095</v>
       </c>
     </row>
     <row r="3">
@@ -54952,28 +54952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3941.49209764906</v>
+        <v>4049.37357398618</v>
       </c>
       <c r="AB3" t="n">
-        <v>5392.923374362817</v>
+        <v>5540.531569682108</v>
       </c>
       <c r="AC3" t="n">
-        <v>4878.230336528921</v>
+        <v>5011.751012856335</v>
       </c>
       <c r="AD3" t="n">
-        <v>3941492.09764906</v>
+        <v>4049373.573986181</v>
       </c>
       <c r="AE3" t="n">
-        <v>5392923.374362817</v>
+        <v>5540531.569682108</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.785221045757145e-07</v>
+        <v>1.648452050245208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.58020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4878230.336528921</v>
+        <v>5011751.012856335</v>
       </c>
     </row>
     <row r="4">
@@ -55058,28 +55058,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3100.229692987696</v>
+        <v>3195.9537464201</v>
       </c>
       <c r="AB4" t="n">
-        <v>4241.871038427146</v>
+        <v>4372.844911380558</v>
       </c>
       <c r="AC4" t="n">
-        <v>3837.032820022893</v>
+        <v>3955.506730364612</v>
       </c>
       <c r="AD4" t="n">
-        <v>3100229.692987696</v>
+        <v>3195953.7464201</v>
       </c>
       <c r="AE4" t="n">
-        <v>4241871.038427146</v>
+        <v>4372844.911380558</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.016713260941042e-06</v>
+        <v>1.907752862199391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.190625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3837032.820022893</v>
+        <v>3955506.730364612</v>
       </c>
     </row>
     <row r="5">
@@ -55164,28 +55164,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2763.275555347654</v>
+        <v>2847.098118930504</v>
       </c>
       <c r="AB5" t="n">
-        <v>3780.835521940605</v>
+        <v>3895.525251425182</v>
       </c>
       <c r="AC5" t="n">
-        <v>3419.997886162434</v>
+        <v>3523.741788833045</v>
       </c>
       <c r="AD5" t="n">
-        <v>2763275.555347654</v>
+        <v>2847098.118930504</v>
       </c>
       <c r="AE5" t="n">
-        <v>3780835.521940605</v>
+        <v>3895525.251425182</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.089812230992658e-06</v>
+        <v>2.044915201570005e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.17291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3419997.886162434</v>
+        <v>3523741.788833045</v>
       </c>
     </row>
     <row r="6">
@@ -55270,28 +55270,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2572.011946098927</v>
+        <v>2655.919761027798</v>
       </c>
       <c r="AB6" t="n">
-        <v>3519.140213811565</v>
+        <v>3633.946587948792</v>
       </c>
       <c r="AC6" t="n">
-        <v>3183.278410949567</v>
+        <v>3287.12782587089</v>
       </c>
       <c r="AD6" t="n">
-        <v>2572011.946098927</v>
+        <v>2655919.761027799</v>
       </c>
       <c r="AE6" t="n">
-        <v>3519140.213811565</v>
+        <v>3633946.587948792</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.135332279280379e-06</v>
+        <v>2.130328666451909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.60416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3183278.410949567</v>
+        <v>3287127.82587089</v>
       </c>
     </row>
     <row r="7">
@@ -55376,28 +55376,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2456.999470816749</v>
+        <v>2540.736693545029</v>
       </c>
       <c r="AB7" t="n">
-        <v>3361.775071138174</v>
+        <v>3476.348033500553</v>
       </c>
       <c r="AC7" t="n">
-        <v>3040.931976629565</v>
+        <v>3144.570256268238</v>
       </c>
       <c r="AD7" t="n">
-        <v>2456999.470816749</v>
+        <v>2540736.693545029</v>
       </c>
       <c r="AE7" t="n">
-        <v>3361775.071138174</v>
+        <v>3476348.033500554</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.166321497821531e-06</v>
+        <v>2.188476595312879e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.24270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3040931.976629565</v>
+        <v>3144570.256268238</v>
       </c>
     </row>
     <row r="8">
@@ -55482,28 +55482,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2364.999081539107</v>
+        <v>2448.821555613407</v>
       </c>
       <c r="AB8" t="n">
-        <v>3235.896079757776</v>
+        <v>3350.585686772806</v>
       </c>
       <c r="AC8" t="n">
-        <v>2927.066699514244</v>
+        <v>3030.810491403628</v>
       </c>
       <c r="AD8" t="n">
-        <v>2364999.081539107</v>
+        <v>2448821.555613407</v>
       </c>
       <c r="AE8" t="n">
-        <v>3235896.079757776</v>
+        <v>3350585.686772806</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.188117742441384e-06</v>
+        <v>2.229374899344279e-06</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>2927066.699514244</v>
+        <v>3030810.491403629</v>
       </c>
     </row>
     <row r="9">
@@ -55588,28 +55588,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2302.94712621716</v>
+        <v>2386.769600291459</v>
       </c>
       <c r="AB9" t="n">
-        <v>3150.99385694722</v>
+        <v>3265.683463962248</v>
       </c>
       <c r="AC9" t="n">
-        <v>2850.267425687711</v>
+        <v>2954.011217577096</v>
       </c>
       <c r="AD9" t="n">
-        <v>2302947.12621716</v>
+        <v>2386769.600291459</v>
       </c>
       <c r="AE9" t="n">
-        <v>3150993.856947219</v>
+        <v>3265683.463962249</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.204872678781815e-06</v>
+        <v>2.260813731694947e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.81875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2850267.425687711</v>
+        <v>2954011.217577096</v>
       </c>
     </row>
     <row r="10">
@@ -55694,28 +55694,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2251.142130333774</v>
+        <v>2334.964604408073</v>
       </c>
       <c r="AB10" t="n">
-        <v>3080.111976104449</v>
+        <v>3194.801583119478</v>
       </c>
       <c r="AC10" t="n">
-        <v>2786.150412069233</v>
+        <v>2889.894203958618</v>
       </c>
       <c r="AD10" t="n">
-        <v>2251142.130333774</v>
+        <v>2334964.604408073</v>
       </c>
       <c r="AE10" t="n">
-        <v>3080111.976104449</v>
+        <v>3194801.583119479</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.218810413436687e-06</v>
+        <v>2.286966388694618e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2786150.412069233</v>
+        <v>2889894.203958618</v>
       </c>
     </row>
     <row r="11">
@@ -55800,28 +55800,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2209.319142653533</v>
+        <v>2293.141616727832</v>
       </c>
       <c r="AB11" t="n">
-        <v>3022.887919260344</v>
+        <v>3137.577526275373</v>
       </c>
       <c r="AC11" t="n">
-        <v>2734.387738895863</v>
+        <v>2838.131530785248</v>
       </c>
       <c r="AD11" t="n">
-        <v>2209319.142653533</v>
+        <v>2293141.616727832</v>
       </c>
       <c r="AE11" t="n">
-        <v>3022887.919260344</v>
+        <v>3137577.526275373</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229486125087228e-06</v>
+        <v>2.306998211077345e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.56145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2734387.738895863</v>
+        <v>2838131.530785248</v>
       </c>
     </row>
     <row r="12">
@@ -55906,28 +55906,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2172.142100449712</v>
+        <v>2243.97783332844</v>
       </c>
       <c r="AB12" t="n">
-        <v>2972.020649981556</v>
+        <v>3070.309468875274</v>
       </c>
       <c r="AC12" t="n">
-        <v>2688.375170404496</v>
+        <v>2777.283442372106</v>
       </c>
       <c r="AD12" t="n">
-        <v>2172142.100449712</v>
+        <v>2243977.83332844</v>
       </c>
       <c r="AE12" t="n">
-        <v>2972020.649981556</v>
+        <v>3070309.468875274</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.238382551462678e-06</v>
+        <v>2.323691396396284e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.471875</v>
       </c>
       <c r="AH12" t="n">
-        <v>2688375.170404496</v>
+        <v>2777283.442372106</v>
       </c>
     </row>
     <row r="13">
@@ -56012,28 +56012,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2142.568108279217</v>
+        <v>2214.403841157945</v>
       </c>
       <c r="AB13" t="n">
-        <v>2931.556209181432</v>
+        <v>3029.845028075148</v>
       </c>
       <c r="AC13" t="n">
-        <v>2651.772599042136</v>
+        <v>2740.680871009746</v>
       </c>
       <c r="AD13" t="n">
-        <v>2142568.108279217</v>
+        <v>2214403.841157945</v>
       </c>
       <c r="AE13" t="n">
-        <v>2931556.209181432</v>
+        <v>3029845.028075147</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.245499692563038e-06</v>
+        <v>2.337045944651434e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.40104166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2651772.599042136</v>
+        <v>2740680.871009746</v>
       </c>
     </row>
     <row r="14">
@@ -56118,28 +56118,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2111.38743068807</v>
+        <v>2183.223163566796</v>
       </c>
       <c r="AB14" t="n">
-        <v>2888.893430506813</v>
+        <v>2987.182249400353</v>
       </c>
       <c r="AC14" t="n">
-        <v>2613.181496086638</v>
+        <v>2702.089768054201</v>
       </c>
       <c r="AD14" t="n">
-        <v>2111387.43068807</v>
+        <v>2183223.163566796</v>
       </c>
       <c r="AE14" t="n">
-        <v>2888893.430506813</v>
+        <v>2987182.249400353</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.25232028611755e-06</v>
+        <v>2.349844053395954e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2613181.496086637</v>
+        <v>2702089.768054201</v>
       </c>
     </row>
     <row r="15">
@@ -56224,28 +56224,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2084.332829900023</v>
+        <v>2156.16856277875</v>
       </c>
       <c r="AB15" t="n">
-        <v>2851.876132143859</v>
+        <v>2950.164951037399</v>
       </c>
       <c r="AC15" t="n">
-        <v>2579.69707672534</v>
+        <v>2668.605348692903</v>
       </c>
       <c r="AD15" t="n">
-        <v>2084332.829900023</v>
+        <v>2156168.56277875</v>
       </c>
       <c r="AE15" t="n">
-        <v>2851876.132143859</v>
+        <v>2950164.951037399</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.257361594396972e-06</v>
+        <v>2.359303525076686e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.284375</v>
       </c>
       <c r="AH15" t="n">
-        <v>2579697.07672534</v>
+        <v>2668605.348692903</v>
       </c>
     </row>
     <row r="16">
@@ -56330,28 +56330,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2062.413252266071</v>
+        <v>2134.248985144797</v>
       </c>
       <c r="AB16" t="n">
-        <v>2821.88479900157</v>
+        <v>2920.173617895109</v>
       </c>
       <c r="AC16" t="n">
-        <v>2552.56807432505</v>
+        <v>2641.476346292613</v>
       </c>
       <c r="AD16" t="n">
-        <v>2062413.252266071</v>
+        <v>2134248.985144797</v>
       </c>
       <c r="AE16" t="n">
-        <v>2821884.79900157</v>
+        <v>2920173.617895109</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.261661533811773e-06</v>
+        <v>2.36737189798084e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.24166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>2552568.07432505</v>
+        <v>2641476.346292614</v>
       </c>
     </row>
     <row r="17">
@@ -56436,28 +56436,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2036.779369250213</v>
+        <v>2108.61510212894</v>
       </c>
       <c r="AB17" t="n">
-        <v>2786.811389372169</v>
+        <v>2885.100208265708</v>
       </c>
       <c r="AC17" t="n">
-        <v>2520.842021684839</v>
+        <v>2609.750293652403</v>
       </c>
       <c r="AD17" t="n">
-        <v>2036779.369250213</v>
+        <v>2108615.10212894</v>
       </c>
       <c r="AE17" t="n">
-        <v>2786811.389372169</v>
+        <v>2885100.208265708</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.266406294545346e-06</v>
+        <v>2.376274930150941e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.196875</v>
       </c>
       <c r="AH17" t="n">
-        <v>2520842.021684839</v>
+        <v>2609750.293652403</v>
       </c>
     </row>
     <row r="18">
@@ -56542,28 +56542,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2014.971578618841</v>
+        <v>2086.807311497567</v>
       </c>
       <c r="AB18" t="n">
-        <v>2756.973008138503</v>
+        <v>2855.261827032043</v>
       </c>
       <c r="AC18" t="n">
-        <v>2493.851373677683</v>
+        <v>2582.759645645247</v>
       </c>
       <c r="AD18" t="n">
-        <v>2014971.578618841</v>
+        <v>2086807.311497567</v>
       </c>
       <c r="AE18" t="n">
-        <v>2756973.008138503</v>
+        <v>2855261.827032043</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.269964865095527e-06</v>
+        <v>2.382952204278516e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.1625</v>
       </c>
       <c r="AH18" t="n">
-        <v>2493851.373677683</v>
+        <v>2582759.645645247</v>
       </c>
     </row>
     <row r="19">
@@ -56648,28 +56648,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1994.074482602009</v>
+        <v>2065.910215480735</v>
       </c>
       <c r="AB19" t="n">
-        <v>2728.380679453464</v>
+        <v>2826.669498347002</v>
       </c>
       <c r="AC19" t="n">
-        <v>2467.987856712758</v>
+        <v>2556.896128680322</v>
       </c>
       <c r="AD19" t="n">
-        <v>1994074.482602009</v>
+        <v>2065910.215480735</v>
       </c>
       <c r="AE19" t="n">
-        <v>2728380.679453464</v>
+        <v>2826669.498347002</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.273226888099858e-06</v>
+        <v>2.389073038895461e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.13020833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2467987.856712758</v>
+        <v>2556896.128680322</v>
       </c>
     </row>
     <row r="20">
@@ -56754,28 +56754,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1973.594079416172</v>
+        <v>2045.429812294898</v>
       </c>
       <c r="AB20" t="n">
-        <v>2700.358488282981</v>
+        <v>2798.647307176519</v>
       </c>
       <c r="AC20" t="n">
-        <v>2442.640064138194</v>
+        <v>2531.548336105757</v>
       </c>
       <c r="AD20" t="n">
-        <v>1973594.079416172</v>
+        <v>2045429.812294898</v>
       </c>
       <c r="AE20" t="n">
-        <v>2700358.488282981</v>
+        <v>2798647.307176519</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.276044089785418e-06</v>
+        <v>2.394359214246458e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.10416666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2442640.064138194</v>
+        <v>2531548.336105757</v>
       </c>
     </row>
     <row r="21">
@@ -56860,28 +56860,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1953.105216093385</v>
+        <v>2024.940948972111</v>
       </c>
       <c r="AB21" t="n">
-        <v>2672.324721579888</v>
+        <v>2770.613540473427</v>
       </c>
       <c r="AC21" t="n">
-        <v>2417.281800783606</v>
+        <v>2506.190072751169</v>
       </c>
       <c r="AD21" t="n">
-        <v>1953105.216093385</v>
+        <v>2024940.948972111</v>
       </c>
       <c r="AE21" t="n">
-        <v>2672324.721579888</v>
+        <v>2770613.540473427</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.278564743925128e-06</v>
+        <v>2.399088950086824e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.07916666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2417281.800783606</v>
+        <v>2506190.072751169</v>
       </c>
     </row>
     <row r="22">
@@ -56966,28 +56966,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1933.007661995895</v>
+        <v>2004.843394874622</v>
       </c>
       <c r="AB22" t="n">
-        <v>2644.826361422193</v>
+        <v>2743.115180315731</v>
       </c>
       <c r="AC22" t="n">
-        <v>2392.40784552517</v>
+        <v>2481.316117492734</v>
       </c>
       <c r="AD22" t="n">
-        <v>1933007.661995895</v>
+        <v>2004843.394874622</v>
       </c>
       <c r="AE22" t="n">
-        <v>2644826.361422193</v>
+        <v>2743115.180315731</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.281678493156536e-06</v>
+        <v>2.404931564948452e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.05104166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2392407.84552517</v>
+        <v>2481316.117492734</v>
       </c>
     </row>
     <row r="23">
@@ -57072,28 +57072,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1914.158726595405</v>
+        <v>1985.994459474131</v>
       </c>
       <c r="AB23" t="n">
-        <v>2619.036416450899</v>
+        <v>2717.325235344438</v>
       </c>
       <c r="AC23" t="n">
-        <v>2369.079256705521</v>
+        <v>2457.987528673085</v>
       </c>
       <c r="AD23" t="n">
-        <v>1914158.726595405</v>
+        <v>1985994.459474131</v>
       </c>
       <c r="AE23" t="n">
-        <v>2619036.416450899</v>
+        <v>2717325.235344438</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.283012957112854e-06</v>
+        <v>2.407435542746293e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.03854166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2369079.256705522</v>
+        <v>2457987.528673085</v>
       </c>
     </row>
     <row r="24">
@@ -57178,28 +57178,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1915.478762377929</v>
+        <v>1987.314495256656</v>
       </c>
       <c r="AB24" t="n">
-        <v>2620.842547644418</v>
+        <v>2719.131366537957</v>
       </c>
       <c r="AC24" t="n">
-        <v>2370.713013272852</v>
+        <v>2459.621285240416</v>
       </c>
       <c r="AD24" t="n">
-        <v>1915478.762377929</v>
+        <v>1987314.495256656</v>
       </c>
       <c r="AE24" t="n">
-        <v>2620842.547644418</v>
+        <v>2719131.366537957</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.28360605220455e-06</v>
+        <v>2.408548421767556e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.03229166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2370713.013272852</v>
+        <v>2459621.285240415</v>
       </c>
     </row>
     <row r="25">
@@ -57284,28 +57284,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1920.623876683983</v>
+        <v>1992.459609562709</v>
       </c>
       <c r="AB25" t="n">
-        <v>2627.882320024383</v>
+        <v>2726.171138917923</v>
       </c>
       <c r="AC25" t="n">
-        <v>2377.080919657256</v>
+        <v>2465.98919162482</v>
       </c>
       <c r="AD25" t="n">
-        <v>1920623.876683983</v>
+        <v>1992459.609562709</v>
       </c>
       <c r="AE25" t="n">
-        <v>2627882.320024383</v>
+        <v>2726171.138917923</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.28360605220455e-06</v>
+        <v>2.408548421767556e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.03333333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>2377080.919657256</v>
+        <v>2465989.19162482</v>
       </c>
     </row>
   </sheetData>
@@ -57581,28 +57581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>825.0940894099483</v>
+        <v>889.215440152582</v>
       </c>
       <c r="AB2" t="n">
-        <v>1128.930133712892</v>
+        <v>1216.66379463331</v>
       </c>
       <c r="AC2" t="n">
-        <v>1021.186626214727</v>
+        <v>1100.547109671867</v>
       </c>
       <c r="AD2" t="n">
-        <v>825094.0894099483</v>
+        <v>889215.440152582</v>
       </c>
       <c r="AE2" t="n">
-        <v>1128930.133712892</v>
+        <v>1216663.79463331</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.443784143314331e-06</v>
+        <v>3.610794574326678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.746875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1021186.626214727</v>
+        <v>1100547.109671867</v>
       </c>
     </row>
   </sheetData>
@@ -57878,28 +57878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3453.545380654907</v>
+        <v>3561.514258197744</v>
       </c>
       <c r="AB2" t="n">
-        <v>4725.293149481503</v>
+        <v>4873.020930986325</v>
       </c>
       <c r="AC2" t="n">
-        <v>4274.317803285398</v>
+        <v>4407.946652660637</v>
       </c>
       <c r="AD2" t="n">
-        <v>3453545.380654907</v>
+        <v>3561514.258197744</v>
       </c>
       <c r="AE2" t="n">
-        <v>4725293.149481503</v>
+        <v>4873020.930986325</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.844314170826411e-07</v>
+        <v>1.821294987039176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4274317.803285398</v>
+        <v>4407946.652660637</v>
       </c>
     </row>
     <row r="3">
@@ -57984,28 +57984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2101.362319749466</v>
+        <v>2187.788554689638</v>
       </c>
       <c r="AB3" t="n">
-        <v>2875.176631443937</v>
+        <v>2993.428818945467</v>
       </c>
       <c r="AC3" t="n">
-        <v>2600.773809074674</v>
+        <v>2707.740173769046</v>
       </c>
       <c r="AD3" t="n">
-        <v>2101362.319749466</v>
+        <v>2187788.554689638</v>
       </c>
       <c r="AE3" t="n">
-        <v>2875176.631443937</v>
+        <v>2993428.818945467</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169879370749638e-06</v>
+        <v>2.409113236179589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.540625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2600773.809074674</v>
+        <v>2707740.173769046</v>
       </c>
     </row>
     <row r="4">
@@ -58090,28 +58090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1808.372488007088</v>
+        <v>1883.899524626896</v>
       </c>
       <c r="AB4" t="n">
-        <v>2474.295017854895</v>
+        <v>2577.63444137581</v>
       </c>
       <c r="AC4" t="n">
-        <v>2238.151774045692</v>
+        <v>2331.628628023563</v>
       </c>
       <c r="AD4" t="n">
-        <v>1808372.488007088</v>
+        <v>1883899.524626896</v>
       </c>
       <c r="AE4" t="n">
-        <v>2474295.017854895</v>
+        <v>2577634.44137581</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.268185817035412e-06</v>
+        <v>2.611554074842363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2238151.774045691</v>
+        <v>2331628.628023562</v>
       </c>
     </row>
     <row r="5">
@@ -58196,28 +58196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1657.887702976665</v>
+        <v>1733.499990942494</v>
       </c>
       <c r="AB5" t="n">
-        <v>2268.395096056107</v>
+        <v>2371.851164229672</v>
       </c>
       <c r="AC5" t="n">
-        <v>2051.902651801025</v>
+        <v>2145.485018029608</v>
       </c>
       <c r="AD5" t="n">
-        <v>1657887.702976665</v>
+        <v>1733499.990942494</v>
       </c>
       <c r="AE5" t="n">
-        <v>2268395.096056107</v>
+        <v>2371851.164229672</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319951836092871e-06</v>
+        <v>2.71815498158007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2051902.651801025</v>
+        <v>2145485.018029608</v>
       </c>
     </row>
     <row r="6">
@@ -58302,28 +58302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1572.110138447133</v>
+        <v>1647.722426412962</v>
       </c>
       <c r="AB6" t="n">
-        <v>2151.030448027732</v>
+        <v>2254.486516201297</v>
       </c>
       <c r="AC6" t="n">
-        <v>1945.73912105816</v>
+        <v>2039.321487286742</v>
       </c>
       <c r="AD6" t="n">
-        <v>1572110.138447133</v>
+        <v>1647722.426412962</v>
       </c>
       <c r="AE6" t="n">
-        <v>2151030.448027732</v>
+        <v>2254486.516201296</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.349835689365789e-06</v>
+        <v>2.77969430628985e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.60104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1945739.12105816</v>
+        <v>2039321.487286743</v>
       </c>
     </row>
     <row r="7">
@@ -58408,28 +58408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1503.029487543193</v>
+        <v>1567.82791804323</v>
       </c>
       <c r="AB7" t="n">
-        <v>2056.511253837734</v>
+        <v>2145.17132515288</v>
       </c>
       <c r="AC7" t="n">
-        <v>1860.240706103133</v>
+        <v>1940.439184647153</v>
       </c>
       <c r="AD7" t="n">
-        <v>1503029.487543193</v>
+        <v>1567827.91804323</v>
       </c>
       <c r="AE7" t="n">
-        <v>2056511.253837734</v>
+        <v>2145171.325152881</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.371554555405669e-06</v>
+        <v>2.824419607854881e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.40208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1860240.706103133</v>
+        <v>1940439.184647153</v>
       </c>
     </row>
     <row r="8">
@@ -58514,28 +58514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1446.921477544297</v>
+        <v>1511.719908044334</v>
       </c>
       <c r="AB8" t="n">
-        <v>1979.741799246542</v>
+        <v>2068.40187056169</v>
       </c>
       <c r="AC8" t="n">
-        <v>1790.798020511518</v>
+        <v>1870.996499055539</v>
       </c>
       <c r="AD8" t="n">
-        <v>1446921.477544297</v>
+        <v>1511719.908044335</v>
       </c>
       <c r="AE8" t="n">
-        <v>1979741.799246542</v>
+        <v>2068401.870561689</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.386578131914458e-06</v>
+        <v>2.855357410441219e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.26770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1790798.020511518</v>
+        <v>1870996.499055539</v>
       </c>
     </row>
     <row r="9">
@@ -58620,28 +58620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1413.097158932777</v>
+        <v>1477.895589432813</v>
       </c>
       <c r="AB9" t="n">
-        <v>1933.461874298638</v>
+        <v>2022.121945613785</v>
       </c>
       <c r="AC9" t="n">
-        <v>1748.93498664636</v>
+        <v>1829.133465190381</v>
       </c>
       <c r="AD9" t="n">
-        <v>1413097.158932777</v>
+        <v>1477895.589432813</v>
       </c>
       <c r="AE9" t="n">
-        <v>1933461.874298638</v>
+        <v>2022121.945613785</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394743119147496e-06</v>
+        <v>2.872171433585967e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.196875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1748934.98664636</v>
+        <v>1829133.465190381</v>
       </c>
     </row>
     <row r="10">
@@ -58726,28 +58726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1421.420371148888</v>
+        <v>1486.218801648924</v>
       </c>
       <c r="AB10" t="n">
-        <v>1944.850060446929</v>
+        <v>2033.510131762076</v>
       </c>
       <c r="AC10" t="n">
-        <v>1759.236300292077</v>
+        <v>1839.434778836098</v>
       </c>
       <c r="AD10" t="n">
-        <v>1421420.371148888</v>
+        <v>1486218.801648924</v>
       </c>
       <c r="AE10" t="n">
-        <v>1944850.060446929</v>
+        <v>2033510.131762076</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.394906418892157e-06</v>
+        <v>2.872507714048862e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.19479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1759236.300292077</v>
+        <v>1839434.778836098</v>
       </c>
     </row>
   </sheetData>
@@ -59023,28 +59023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5015.650026197594</v>
+        <v>5139.439155468084</v>
       </c>
       <c r="AB2" t="n">
-        <v>6862.633640706302</v>
+        <v>7032.007388565146</v>
       </c>
       <c r="AC2" t="n">
-        <v>6207.673517803841</v>
+        <v>6360.882472884578</v>
       </c>
       <c r="AD2" t="n">
-        <v>5015650.026197595</v>
+        <v>5139439.155468084</v>
       </c>
       <c r="AE2" t="n">
-        <v>6862633.640706302</v>
+        <v>7032007.388565146</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.35959232733375e-07</v>
+        <v>1.458070738811243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.25208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6207673.51780384</v>
+        <v>6360882.472884579</v>
       </c>
     </row>
     <row r="3">
@@ -59129,28 +59129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2666.907076613373</v>
+        <v>2756.82694304297</v>
       </c>
       <c r="AB3" t="n">
-        <v>3648.979917859129</v>
+        <v>3772.012246092641</v>
       </c>
       <c r="AC3" t="n">
-        <v>3300.726395873995</v>
+        <v>3412.016691377853</v>
       </c>
       <c r="AD3" t="n">
-        <v>2666907.076613373</v>
+        <v>2756826.94304297</v>
       </c>
       <c r="AE3" t="n">
-        <v>3648979.917859129</v>
+        <v>3772012.246092641</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05795122346996e-06</v>
+        <v>2.095996154979888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.48020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3300726.395873995</v>
+        <v>3412016.691377854</v>
       </c>
     </row>
     <row r="4">
@@ -59235,28 +59235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2224.098464472781</v>
+        <v>2314.018241393826</v>
       </c>
       <c r="AB4" t="n">
-        <v>3043.109639391102</v>
+        <v>3166.141845155065</v>
       </c>
       <c r="AC4" t="n">
-        <v>2752.679526438704</v>
+        <v>2863.969711161335</v>
       </c>
       <c r="AD4" t="n">
-        <v>2224098.464472781</v>
+        <v>2314018.241393826</v>
       </c>
       <c r="AE4" t="n">
-        <v>3043109.639391102</v>
+        <v>3166141.845155065</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171937645971924e-06</v>
+        <v>2.321824244199744e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.97395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2752679.526438704</v>
+        <v>2863969.711161335</v>
       </c>
     </row>
     <row r="5">
@@ -59341,28 +59341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2037.980372009572</v>
+        <v>2116.638931110394</v>
       </c>
       <c r="AB5" t="n">
-        <v>2788.454654332025</v>
+        <v>2896.078765064485</v>
       </c>
       <c r="AC5" t="n">
-        <v>2522.328455743263</v>
+        <v>2619.681072398806</v>
       </c>
       <c r="AD5" t="n">
-        <v>2037980.372009572</v>
+        <v>2116638.931110394</v>
       </c>
       <c r="AE5" t="n">
-        <v>2788454.654332025</v>
+        <v>2896078.765064485</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231053363021219e-06</v>
+        <v>2.438943363574456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.30416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2522328.455743263</v>
+        <v>2619681.072398806</v>
       </c>
     </row>
     <row r="6">
@@ -59447,28 +59447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1916.637028852944</v>
+        <v>1995.380839299788</v>
       </c>
       <c r="AB6" t="n">
-        <v>2622.427338934644</v>
+        <v>2730.168094319753</v>
       </c>
       <c r="AC6" t="n">
-        <v>2372.146554306608</v>
+        <v>2469.604683212862</v>
       </c>
       <c r="AD6" t="n">
-        <v>1916637.028852944</v>
+        <v>1995380.839299788</v>
       </c>
       <c r="AE6" t="n">
-        <v>2622427.338934644</v>
+        <v>2730168.094319753</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.267057350266667e-06</v>
+        <v>2.51027389106597e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.925</v>
       </c>
       <c r="AH6" t="n">
-        <v>2372146.554306608</v>
+        <v>2469604.683212862</v>
       </c>
     </row>
     <row r="7">
@@ -59553,28 +59553,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1838.887031535626</v>
+        <v>1917.630841982469</v>
       </c>
       <c r="AB7" t="n">
-        <v>2516.046362517291</v>
+        <v>2623.7871179024</v>
       </c>
       <c r="AC7" t="n">
-        <v>2275.918428971889</v>
+        <v>2373.376557878143</v>
       </c>
       <c r="AD7" t="n">
-        <v>1838887.031535626</v>
+        <v>1917630.841982469</v>
       </c>
       <c r="AE7" t="n">
-        <v>2516046.362517291</v>
+        <v>2623787.1179024</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291741306587782e-06</v>
+        <v>2.559177353145305e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.67916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2275918.428971888</v>
+        <v>2373376.557878143</v>
       </c>
     </row>
     <row r="8">
@@ -59659,28 +59659,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1781.580501114645</v>
+        <v>1849.233685941858</v>
       </c>
       <c r="AB8" t="n">
-        <v>2437.637039409613</v>
+        <v>2530.203111538075</v>
       </c>
       <c r="AC8" t="n">
-        <v>2204.992381613432</v>
+        <v>2288.724077735251</v>
       </c>
       <c r="AD8" t="n">
-        <v>1781580.501114645</v>
+        <v>1849233.685941858</v>
       </c>
       <c r="AE8" t="n">
-        <v>2437637.039409613</v>
+        <v>2530203.111538075</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.308564130322555e-06</v>
+        <v>2.592506464243959e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2204992.381613432</v>
+        <v>2288724.077735251</v>
       </c>
     </row>
     <row r="9">
@@ -59765,28 +59765,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1732.492979461404</v>
+        <v>1799.975572088025</v>
       </c>
       <c r="AB9" t="n">
-        <v>2370.473326695033</v>
+        <v>2462.805987048647</v>
       </c>
       <c r="AC9" t="n">
-        <v>2144.238679375468</v>
+        <v>2227.759240214637</v>
       </c>
       <c r="AD9" t="n">
-        <v>1732492.979461404</v>
+        <v>1799975.572088025</v>
       </c>
       <c r="AE9" t="n">
-        <v>2370473.326695033</v>
+        <v>2462805.987048647</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.322085278371064e-06</v>
+        <v>2.619294347930729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.3875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2144238.679375468</v>
+        <v>2227759.240214637</v>
       </c>
     </row>
     <row r="10">
@@ -59871,28 +59871,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1688.437750328581</v>
+        <v>1755.920342955202</v>
       </c>
       <c r="AB10" t="n">
-        <v>2310.195018615966</v>
+        <v>2402.527678969581</v>
       </c>
       <c r="AC10" t="n">
-        <v>2089.71324841833</v>
+        <v>2173.233809257499</v>
       </c>
       <c r="AD10" t="n">
-        <v>1688437.750328581</v>
+        <v>1755920.342955202</v>
       </c>
       <c r="AE10" t="n">
-        <v>2310195.018615966</v>
+        <v>2402527.678969581</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.332461973385036e-06</v>
+        <v>2.639852491225226e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.290625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2089713.24841833</v>
+        <v>2173233.809257499</v>
       </c>
     </row>
     <row r="11">
@@ -59977,28 +59977,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1648.015449683952</v>
+        <v>1715.498042310572</v>
       </c>
       <c r="AB11" t="n">
-        <v>2254.887443567939</v>
+        <v>2347.220103921554</v>
       </c>
       <c r="AC11" t="n">
-        <v>2039.684150708219</v>
+        <v>2123.204711547387</v>
       </c>
       <c r="AD11" t="n">
-        <v>1648015.449683952</v>
+        <v>1715498.042310572</v>
       </c>
       <c r="AE11" t="n">
-        <v>2254887.44356794</v>
+        <v>2347220.103921554</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.341423664533466e-06</v>
+        <v>2.657607251343201e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.209375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2039684.150708219</v>
+        <v>2123204.711547386</v>
       </c>
     </row>
     <row r="12">
@@ -60083,28 +60083,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1611.507191031949</v>
+        <v>1678.989783658569</v>
       </c>
       <c r="AB12" t="n">
-        <v>2204.93523344957</v>
+        <v>2297.267893803184</v>
       </c>
       <c r="AC12" t="n">
-        <v>1994.499309415179</v>
+        <v>2078.019870254347</v>
       </c>
       <c r="AD12" t="n">
-        <v>1611507.191031949</v>
+        <v>1678989.783658569</v>
       </c>
       <c r="AE12" t="n">
-        <v>2204935.23344957</v>
+        <v>2297267.893803184</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.348027015905994e-06</v>
+        <v>2.670689706166972e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.15</v>
       </c>
       <c r="AH12" t="n">
-        <v>1994499.309415179</v>
+        <v>2078019.870254347</v>
       </c>
     </row>
     <row r="13">
@@ -60189,28 +60189,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1586.860406587549</v>
+        <v>1654.34299921417</v>
       </c>
       <c r="AB13" t="n">
-        <v>2171.212415633353</v>
+        <v>2263.545075986967</v>
       </c>
       <c r="AC13" t="n">
-        <v>1963.994950001069</v>
+        <v>2047.515510840238</v>
       </c>
       <c r="AD13" t="n">
-        <v>1586860.406587549</v>
+        <v>1654342.99921417</v>
       </c>
       <c r="AE13" t="n">
-        <v>2171212.415633353</v>
+        <v>2263545.075986967</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.352272027502619e-06</v>
+        <v>2.679099855696539e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.11145833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1963994.950001069</v>
+        <v>2047515.510840238</v>
       </c>
     </row>
     <row r="14">
@@ -60295,28 +60295,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1588.846656778928</v>
+        <v>1656.32924940555</v>
       </c>
       <c r="AB14" t="n">
-        <v>2173.930090772373</v>
+        <v>2266.262751125987</v>
       </c>
       <c r="AC14" t="n">
-        <v>1966.453254039102</v>
+        <v>2049.97381487827</v>
       </c>
       <c r="AD14" t="n">
-        <v>1588846.656778929</v>
+        <v>1656329.24940555</v>
       </c>
       <c r="AE14" t="n">
-        <v>2173930.090772373</v>
+        <v>2266262.751125987</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.353372586064707e-06</v>
+        <v>2.681280264833834e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.10208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1966453.254039102</v>
+        <v>2049973.81487827</v>
       </c>
     </row>
   </sheetData>
